--- a/サーバ構築手順.xlsx
+++ b/サーバ構築手順.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GWー221\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D470A223-F353-4870-9639-22B70A328A5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B929C53F-3056-4FE2-8DC9-FA346B49A0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14925" yWindow="2625" windowWidth="12675" windowHeight="12090" tabRatio="759" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="759" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="1" r:id="rId1"/>
@@ -29,8 +29,6 @@
     <sheet name="疎通確認_ping" sheetId="12" r:id="rId14"/>
     <sheet name="DBサーバ環境設定" sheetId="18" r:id="rId15"/>
     <sheet name="Wordpress設定" sheetId="11" r:id="rId16"/>
-    <sheet name="DB同期設定" sheetId="20" r:id="rId17"/>
-    <sheet name="最終確認(何かあれば)" sheetId="19" r:id="rId18"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -42,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="337">
   <si>
     <t>2023 / 6 / 26 記</t>
   </si>
@@ -404,18 +402,9 @@
     <t>７，[インバウンドルール]に以下を追加する。</t>
   </si>
   <si>
-    <t>８，[アウトバウンドルール]にルールがある場合、削除する。</t>
-  </si>
-  <si>
-    <t>９，正しく入力できていることを確認し、</t>
-  </si>
-  <si>
     <t>　　[セキュリティグループを作成]を押下する。</t>
   </si>
   <si>
-    <t>１０，セキュリティグループが作成されてことを確認する。</t>
-  </si>
-  <si>
     <t>３，左の[ターゲットグループ]を選択する。</t>
   </si>
   <si>
@@ -468,18 +457,6 @@
   </si>
   <si>
     <t>・[Default action]：作成したターゲットグループ</t>
-  </si>
-  <si>
-    <t>〇Listener HTTPS:443</t>
-  </si>
-  <si>
-    <t>・[プロトコル]：HTTPS</t>
-  </si>
-  <si>
-    <t>・[ポート]：443</t>
-  </si>
-  <si>
-    <t>１０，※証明書の設定(SSL)</t>
   </si>
   <si>
     <t>　　[Create load balancer]を押下する。</t>
@@ -687,10 +664,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>１？，正しく入力されていることを確認し、</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>１２，トラフィックのルーティング先を以下に設定する。</t>
     <rPh sb="16" eb="17">
       <t>サキ</t>
@@ -1659,26 +1632,6 @@
     </rPh>
     <rPh sb="34" eb="36">
       <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※作業要否不明</t>
-    <rPh sb="1" eb="7">
-      <t>サギョウヨウヒフメイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>※作業要否不明</t>
-    <rPh sb="1" eb="3">
-      <t>サギョウ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨウヒ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>フメイ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -2453,12 +2406,24 @@
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
+  <si>
+    <t>１０，正しく入力されていることを確認し、</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>８，正しく入力できていることを確認し、</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>９，セキュリティグループが作成されてことを確認する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2498,13 +2463,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="ＭＳ ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -2580,34 +2538,15 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2619,29 +2558,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3308,210 +3243,6 @@
               <a:sym typeface="Calibri"/>
             </a:rPr>
             <a:t>設定</a:t>
-          </a:r>
-          <a:endParaRPr sz="2000" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5362575" cy="561975"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB5A946E-2E13-42AA-BCE5-81D2DF1634FF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581025" y="238125"/>
-          <a:ext cx="5362575" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>DB</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>同期設定</a:t>
-          </a:r>
-          <a:endParaRPr sz="2000" b="1"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing18.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5362575" cy="561975"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E26763EB-D1EA-4071-8BCE-7A2826FC8185}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="581025" y="238125"/>
-          <a:ext cx="5362575" cy="561975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="38100" cap="flat" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-          <a:headEnd type="none" w="sm" len="sm"/>
-          <a:tailEnd type="none" w="sm" len="sm"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr spcFirstLastPara="1" wrap="square" lIns="91425" tIns="45700" rIns="91425" bIns="45700" anchor="ctr" anchorCtr="0">
-          <a:noAutofit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" lvl="0" indent="0" algn="ctr" rtl="0">
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buNone/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>最終確認</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>何かあれば</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="2000" b="1">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-              <a:sym typeface="Calibri"/>
-            </a:rPr>
-            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr sz="2000" b="1"/>
         </a:p>
@@ -4358,7 +4089,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -4527,7 +4258,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="6" t="s">
         <v>0</v>
       </c>
       <c r="G13" s="1"/>
@@ -4552,10 +4283,10 @@
     <row r="15" spans="1:11" ht="18.75" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="5"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -4567,8 +4298,8 @@
     <row r="16" spans="1:11" ht="18.75" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E16" s="1"/>
@@ -4580,14 +4311,14 @@
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="3:4" ht="18.75" customHeight="1">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
+      <c r="C17" s="3"/>
+      <c r="D17" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="18" spans="3:4" ht="18.75" customHeight="1">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="3:4" ht="18.75" customHeight="1"/>
     <row r="20" spans="3:4" ht="18.75" customHeight="1"/>
@@ -5581,7 +5312,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
-  <dimension ref="B1:K1008"/>
+  <dimension ref="B1:D1006"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5596,279 +5327,260 @@
     <row r="4" spans="2:4" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:4" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="21" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>205</v>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>206</v>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="3"/>
     </row>
     <row r="25" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>205</v>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>206</v>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="4"/>
+      <c r="D29" s="3"/>
     </row>
     <row r="30" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>205</v>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="32" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="34" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D34" s="4"/>
-    </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="36" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="37" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-    </row>
-    <row r="40" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B40" s="9" t="s">
+    <row r="34" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="40" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B40" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+    </row>
+    <row r="41" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B41" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-    </row>
-    <row r="42" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B42" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-    </row>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B43" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-    </row>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-    </row>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B45" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-    </row>
-    <row r="46" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+    </row>
+    <row r="42" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+    </row>
+    <row r="43" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B43" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+    </row>
+    <row r="44" spans="2:4" ht="18.75" customHeight="1"/>
+    <row r="45" spans="2:4" ht="18.75" customHeight="1"/>
+    <row r="46" spans="2:4" ht="18.75" customHeight="1"/>
+    <row r="47" spans="2:4" ht="18.75" customHeight="1"/>
+    <row r="48" spans="2:4" ht="18.75" customHeight="1"/>
     <row r="49" ht="18.75" customHeight="1"/>
     <row r="50" ht="18.75" customHeight="1"/>
     <row r="51" ht="18.75" customHeight="1"/>
@@ -6827,8 +6539,6 @@
     <row r="1004" ht="18.75" customHeight="1"/>
     <row r="1005" ht="18.75" customHeight="1"/>
     <row r="1006" ht="18.75" customHeight="1"/>
-    <row r="1007" ht="18.75" customHeight="1"/>
-    <row r="1008" ht="18.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -6854,102 +6564,102 @@
     <row r="4" spans="2:2" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:2" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" ht="18.75" customHeight="1">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="2:2" ht="18.75" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" ht="18.75" customHeight="1">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="2:2" ht="18.75" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" ht="18.75" customHeight="1">
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="2:2" ht="18.75" customHeight="1">
+      <c r="B16" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="11" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-    </row>
-    <row r="12" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+    <row r="17" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B17" s="3"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B26" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B27" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="13" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-    </row>
-    <row r="14" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-    </row>
-    <row r="16" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B18" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-    </row>
-    <row r="20" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B20" s="4" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B22" s="4" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B23" s="4"/>
-    </row>
-    <row r="24" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B24" s="4" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B25" s="4"/>
-    </row>
-    <row r="26" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B26" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B27" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
     <row r="28" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B28" s="4"/>
+      <c r="B28" s="3"/>
     </row>
     <row r="29" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B29" s="4" t="s">
-        <v>168</v>
+      <c r="B29" s="3" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="30" spans="2:7" ht="18.75" customHeight="1"/>
@@ -7937,7 +7647,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="B1:K1000"/>
+  <dimension ref="B1:D993"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -7952,268 +7662,186 @@
     <row r="4" spans="2:4" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:4" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B16" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-    </row>
-    <row r="11" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B18" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+    </row>
+    <row r="19" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B19" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+    </row>
+    <row r="20" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B20" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-    </row>
-    <row r="17" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-    </row>
-    <row r="18" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B18" s="4" t="s">
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+    </row>
+    <row r="21" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+    </row>
+    <row r="22" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B22" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-    </row>
-    <row r="19" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B19" s="4" t="s">
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+    </row>
+    <row r="23" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+    </row>
+    <row r="24" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B24" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-    </row>
-    <row r="20" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B20" s="4" t="s">
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-    </row>
-    <row r="21" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-    </row>
-    <row r="22" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B22" s="4" t="s">
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-    </row>
-    <row r="23" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-    </row>
-    <row r="24" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B24" s="4" t="s">
+    </row>
+    <row r="27" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+    </row>
+    <row r="28" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+    </row>
+    <row r="29" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+    </row>
+    <row r="31" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B31" s="3" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="29" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B29" s="9"/>
-      <c r="C29" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="D29" s="9"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B30" s="9"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B32" s="9"/>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B33" s="9"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B34" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-    </row>
-    <row r="36" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-    </row>
-    <row r="37" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-    </row>
-    <row r="38" spans="2:11" ht="18.75" customHeight="1">
-      <c r="B38" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-    </row>
-    <row r="39" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="40" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="41" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="42" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="43" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="44" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="45" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="46" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="47" spans="2:11" ht="18.75" customHeight="1"/>
-    <row r="48" spans="2:11" ht="18.75" customHeight="1"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+    </row>
+    <row r="32" spans="2:4" ht="18.75" customHeight="1"/>
+    <row r="33" ht="18.75" customHeight="1"/>
+    <row r="34" ht="18.75" customHeight="1"/>
+    <row r="35" ht="18.75" customHeight="1"/>
+    <row r="36" ht="18.75" customHeight="1"/>
+    <row r="37" ht="18.75" customHeight="1"/>
+    <row r="38" ht="18.75" customHeight="1"/>
+    <row r="39" ht="18.75" customHeight="1"/>
+    <row r="40" ht="18.75" customHeight="1"/>
+    <row r="41" ht="18.75" customHeight="1"/>
+    <row r="42" ht="18.75" customHeight="1"/>
+    <row r="43" ht="18.75" customHeight="1"/>
+    <row r="44" ht="18.75" customHeight="1"/>
+    <row r="45" ht="18.75" customHeight="1"/>
+    <row r="46" ht="18.75" customHeight="1"/>
+    <row r="47" ht="18.75" customHeight="1"/>
+    <row r="48" ht="18.75" customHeight="1"/>
     <row r="49" ht="18.75" customHeight="1"/>
     <row r="50" ht="18.75" customHeight="1"/>
     <row r="51" ht="18.75" customHeight="1"/>
@@ -9159,13 +8787,6 @@
     <row r="991" ht="18.75" customHeight="1"/>
     <row r="992" ht="18.75" customHeight="1"/>
     <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
-    <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
   </sheetData>
   <phoneticPr fontId="3"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
@@ -9191,176 +8812,176 @@
     <row r="4" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>231</v>
-      </c>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B26" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B30" s="3" t="s">
         <v>162</v>
       </c>
-      <c r="C14" s="4"/>
-    </row>
-    <row r="15" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B15" s="4" t="s">
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B17" s="4" t="s">
+    </row>
+    <row r="32" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
         <v>164</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B18" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B20" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B22" s="4" t="s">
+    </row>
+    <row r="33" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B24" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B26" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B28" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B30" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="32" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="33" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>173</v>
-      </c>
     </row>
     <row r="34" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B35" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="C35" s="4"/>
+      <c r="B35" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B36" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="C36" s="4"/>
+      <c r="B36" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B38" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="4"/>
+      <c r="B38" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="40" spans="2:3" ht="18.75" customHeight="1"/>
@@ -10349,53 +9970,53 @@
     <row r="4" spans="2:2" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:2" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="7" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="9" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
+      <c r="B9" s="3"/>
     </row>
     <row r="10" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="11" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
+      <c r="B11" s="3"/>
     </row>
     <row r="12" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="13" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
+      <c r="B13" s="3"/>
     </row>
     <row r="14" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>236</v>
+      <c r="B14" s="3" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
+      <c r="B15" s="3"/>
     </row>
     <row r="16" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
-        <v>178</v>
+      <c r="B16" s="3" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="18.75" customHeight="1">
-      <c r="B17" s="4" t="s">
-        <v>179</v>
+      <c r="B17" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="18.75" customHeight="1"/>
@@ -11406,411 +11027,411 @@
     <row r="4" spans="2:8" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:8" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
     </row>
     <row r="7" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
     </row>
     <row r="8" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
     </row>
     <row r="9" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
     </row>
     <row r="10" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
     </row>
     <row r="11" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
     </row>
     <row r="13" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
     </row>
     <row r="14" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
     </row>
     <row r="15" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
     </row>
     <row r="16" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="31" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+    </row>
+    <row r="34" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+    </row>
+    <row r="35" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+    </row>
+    <row r="37" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="I17" s="5"/>
-    </row>
-    <row r="18" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B25" s="4" t="s">
+    </row>
+    <row r="41" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+    </row>
+    <row r="42" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3" t="s">
         <v>253</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B28" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="33" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="36" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>257</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="43" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="44" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="45" spans="2:9" ht="18.75" customHeight="1">
-      <c r="I45" s="5"/>
+      <c r="I45" s="4"/>
     </row>
     <row r="46" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="47" spans="2:9" ht="18.75" customHeight="1"/>
@@ -12795,725 +12416,725 @@
     <row r="4" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
     </row>
     <row r="12" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="I32" s="3"/>
+    </row>
+    <row r="33" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+    </row>
+    <row r="34" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B34" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+    </row>
+    <row r="35" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B35" s="3" t="s">
         <v>282</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
-        <v>279</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>273</v>
-      </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+    </row>
+    <row r="36" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B36" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+    </row>
+    <row r="37" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+    </row>
+    <row r="39" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+    </row>
+    <row r="42" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="43" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3" t="s">
         <v>298</v>
-      </c>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>274</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4" t="s">
-        <v>276</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4" t="s">
-        <v>277</v>
-      </c>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4" t="s">
-        <v>299</v>
-      </c>
-      <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B25" s="4" t="s">
-        <v>283</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>284</v>
-      </c>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4" t="s">
-        <v>286</v>
-      </c>
-      <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-    </row>
-    <row r="29" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>300</v>
-      </c>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="I29" s="4"/>
-    </row>
-    <row r="30" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4" t="s">
-        <v>287</v>
-      </c>
-      <c r="I30" s="4"/>
-    </row>
-    <row r="31" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="4"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="4"/>
-    </row>
-    <row r="32" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>264</v>
-      </c>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4" t="s">
-        <v>302</v>
-      </c>
-      <c r="I32" s="4"/>
-    </row>
-    <row r="33" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
-      <c r="I33" s="4"/>
-    </row>
-    <row r="34" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B34" s="4" t="s">
-        <v>289</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
-      <c r="I34" s="4"/>
-    </row>
-    <row r="35" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B35" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
-      <c r="I35" s="4"/>
-    </row>
-    <row r="36" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B36" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
-      <c r="I36" s="4"/>
-    </row>
-    <row r="37" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="4"/>
-      <c r="I37" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4"/>
-      <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="4"/>
-      <c r="I38" s="4"/>
-    </row>
-    <row r="39" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-      <c r="F39" s="4"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="4"/>
-      <c r="I39" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="D40" s="4"/>
-      <c r="E40" s="4"/>
-      <c r="F40" s="4"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="4"/>
-      <c r="I40" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="4"/>
-      <c r="G41" s="4"/>
-      <c r="H41" s="4"/>
-      <c r="I41" s="4"/>
-    </row>
-    <row r="42" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="4"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4"/>
-      <c r="I42" s="4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="43" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
-      <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="4"/>
-      <c r="I43" s="4" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="44" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="45" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B45" s="4" t="s">
-        <v>322</v>
+      <c r="B45" s="3" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="46" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B46" s="12" t="s">
-        <v>323</v>
+      <c r="B46" s="8" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="47" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B47" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
     </row>
     <row r="48" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
     </row>
     <row r="49" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B49" s="4" t="s">
+      <c r="B49" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="I49" s="3"/>
+    </row>
+    <row r="50" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4"/>
-      <c r="F49" s="4"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="4" t="s">
+      <c r="I50" s="3"/>
+    </row>
+    <row r="51" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+    </row>
+    <row r="52" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+    </row>
+    <row r="53" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="I49" s="4"/>
-    </row>
-    <row r="50" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4"/>
-      <c r="F50" s="4"/>
-      <c r="G50" s="4"/>
-      <c r="H50" s="4" t="s">
+      <c r="E53" s="3"/>
+      <c r="F53" s="3"/>
+      <c r="G53" s="3"/>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+    </row>
+    <row r="54" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D54" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="3"/>
+      <c r="G54" s="3"/>
+      <c r="H54" s="3"/>
+      <c r="I54" s="3"/>
+    </row>
+    <row r="55" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D55" s="7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D56" s="7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D57" s="7" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="58" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D58" s="7" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D59" s="9" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="60" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D60" s="9" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="61" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D61" s="7" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="62" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D62" s="7" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="63" spans="2:9" ht="18.75" customHeight="1">
+      <c r="D63" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="64" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
+      <c r="G64" s="3"/>
+      <c r="H64" s="3"/>
+      <c r="I64" s="3"/>
+    </row>
+    <row r="65" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+      <c r="F65" s="3"/>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
+      <c r="I65" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="66" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="3"/>
+      <c r="G66" s="3"/>
+      <c r="H66" s="3"/>
+      <c r="I66" s="3"/>
+    </row>
+    <row r="67" spans="2:9" ht="18.75" customHeight="1">
+      <c r="B67" s="3" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="68" spans="2:9" ht="18.75" customHeight="1">
+      <c r="C68" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="I50" s="4"/>
-    </row>
-    <row r="51" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-    </row>
-    <row r="52" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-    </row>
-    <row r="53" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-    </row>
-    <row r="54" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D54" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-    </row>
-    <row r="55" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D55" s="11">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D56" s="11" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D57" s="11" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D58" s="11" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="59" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D59" s="13" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="60" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D60" s="13" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D61" s="11" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D62" s="11" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="63" spans="2:9" ht="18.75" customHeight="1">
-      <c r="D63" s="11" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="64" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4"/>
-      <c r="F64" s="4"/>
-      <c r="G64" s="4"/>
-      <c r="H64" s="4"/>
-      <c r="I64" s="4"/>
-    </row>
-    <row r="65" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4" t="s">
-        <v>278</v>
-      </c>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4"/>
-      <c r="F65" s="4"/>
-      <c r="G65" s="4"/>
-      <c r="H65" s="4"/>
-      <c r="I65" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="66" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4"/>
-      <c r="F66" s="4"/>
-      <c r="G66" s="4"/>
-      <c r="H66" s="4"/>
-      <c r="I66" s="4"/>
-    </row>
-    <row r="67" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B67" s="4" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" ht="18.75" customHeight="1">
-      <c r="C68" s="4" t="s">
-        <v>329</v>
-      </c>
     </row>
     <row r="69" spans="2:9" ht="18.75" customHeight="1">
-      <c r="C69" s="12" t="s">
-        <v>330</v>
+      <c r="C69" s="8" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="70" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="71" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B71" s="4" t="s">
-        <v>332</v>
+      <c r="B71" s="3" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="72" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="73" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B73" s="4" t="s">
-        <v>333</v>
+      <c r="B73" s="3" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="74" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B74" s="12" t="s">
-        <v>334</v>
+      <c r="B74" s="8" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="75" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B75" s="4" t="s">
-        <v>341</v>
+      <c r="B75" s="3" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="77" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B77" s="4" t="s">
-        <v>335</v>
+      <c r="B77" s="3" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="78" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="79" spans="2:9" ht="18.75" customHeight="1">
-      <c r="B79" s="4" t="s">
-        <v>336</v>
+      <c r="B79" s="3" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="2:9" ht="18.75" customHeight="1"/>
     <row r="81" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B81" s="4" t="s">
-        <v>337</v>
+      <c r="B81" s="3" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="82" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B82" s="14" t="s">
-        <v>338</v>
+      <c r="B82" s="10" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="83" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="84" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B84" s="4" t="s">
-        <v>342</v>
+      <c r="B84" s="3" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="85" spans="2:3" ht="18.75" customHeight="1">
-      <c r="C85" s="15" t="s">
-        <v>339</v>
+      <c r="C85" s="11" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="86" spans="2:3" ht="18.75" customHeight="1">
-      <c r="C86" s="15" t="s">
-        <v>343</v>
+      <c r="C86" s="11" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="87" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="88" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B88" s="4" t="s">
-        <v>340</v>
+      <c r="B88" s="3" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="2:3" ht="18.75" customHeight="1"/>
@@ -14454,2044 +14075,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAEE52E5-98E2-4923-B37B-08A1EA9974BB}">
-  <dimension ref="A1:A1000"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1"/>
-    <row r="2" ht="18.75" customHeight="1"/>
-    <row r="3" ht="18.75" customHeight="1"/>
-    <row r="4" ht="18.75" customHeight="1"/>
-    <row r="5" ht="18.75" customHeight="1"/>
-    <row r="6" ht="18.75" customHeight="1"/>
-    <row r="7" ht="18.75" customHeight="1"/>
-    <row r="8" ht="18.75" customHeight="1"/>
-    <row r="9" ht="18.75" customHeight="1"/>
-    <row r="10" ht="18.75" customHeight="1"/>
-    <row r="11" ht="18.75" customHeight="1"/>
-    <row r="12" ht="18.75" customHeight="1"/>
-    <row r="13" ht="18.75" customHeight="1"/>
-    <row r="14" ht="18.75" customHeight="1"/>
-    <row r="15" ht="18.75" customHeight="1"/>
-    <row r="16" ht="18.75" customHeight="1"/>
-    <row r="17" ht="18.75" customHeight="1"/>
-    <row r="18" ht="18.75" customHeight="1"/>
-    <row r="19" ht="18.75" customHeight="1"/>
-    <row r="20" ht="18.75" customHeight="1"/>
-    <row r="21" ht="18.75" customHeight="1"/>
-    <row r="22" ht="18.75" customHeight="1"/>
-    <row r="23" ht="18.75" customHeight="1"/>
-    <row r="24" ht="18.75" customHeight="1"/>
-    <row r="25" ht="18.75" customHeight="1"/>
-    <row r="26" ht="18.75" customHeight="1"/>
-    <row r="27" ht="18.75" customHeight="1"/>
-    <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1"/>
-    <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1"/>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
-    <row r="56" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
-    <row r="62" ht="18.75" customHeight="1"/>
-    <row r="63" ht="18.75" customHeight="1"/>
-    <row r="64" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
-    <row r="67" ht="18.75" customHeight="1"/>
-    <row r="68" ht="18.75" customHeight="1"/>
-    <row r="69" ht="18.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1"/>
-    <row r="71" ht="18.75" customHeight="1"/>
-    <row r="72" ht="18.75" customHeight="1"/>
-    <row r="73" ht="18.75" customHeight="1"/>
-    <row r="74" ht="18.75" customHeight="1"/>
-    <row r="75" ht="18.75" customHeight="1"/>
-    <row r="76" ht="18.75" customHeight="1"/>
-    <row r="77" ht="18.75" customHeight="1"/>
-    <row r="78" ht="18.75" customHeight="1"/>
-    <row r="79" ht="18.75" customHeight="1"/>
-    <row r="80" ht="18.75" customHeight="1"/>
-    <row r="81" ht="18.75" customHeight="1"/>
-    <row r="82" ht="18.75" customHeight="1"/>
-    <row r="83" ht="18.75" customHeight="1"/>
-    <row r="84" ht="18.75" customHeight="1"/>
-    <row r="85" ht="18.75" customHeight="1"/>
-    <row r="86" ht="18.75" customHeight="1"/>
-    <row r="87" ht="18.75" customHeight="1"/>
-    <row r="88" ht="18.75" customHeight="1"/>
-    <row r="89" ht="18.75" customHeight="1"/>
-    <row r="90" ht="18.75" customHeight="1"/>
-    <row r="91" ht="18.75" customHeight="1"/>
-    <row r="92" ht="18.75" customHeight="1"/>
-    <row r="93" ht="18.75" customHeight="1"/>
-    <row r="94" ht="18.75" customHeight="1"/>
-    <row r="95" ht="18.75" customHeight="1"/>
-    <row r="96" ht="18.75" customHeight="1"/>
-    <row r="97" ht="18.75" customHeight="1"/>
-    <row r="98" ht="18.75" customHeight="1"/>
-    <row r="99" ht="18.75" customHeight="1"/>
-    <row r="100" ht="18.75" customHeight="1"/>
-    <row r="101" ht="18.75" customHeight="1"/>
-    <row r="102" ht="18.75" customHeight="1"/>
-    <row r="103" ht="18.75" customHeight="1"/>
-    <row r="104" ht="18.75" customHeight="1"/>
-    <row r="105" ht="18.75" customHeight="1"/>
-    <row r="106" ht="18.75" customHeight="1"/>
-    <row r="107" ht="18.75" customHeight="1"/>
-    <row r="108" ht="18.75" customHeight="1"/>
-    <row r="109" ht="18.75" customHeight="1"/>
-    <row r="110" ht="18.75" customHeight="1"/>
-    <row r="111" ht="18.75" customHeight="1"/>
-    <row r="112" ht="18.75" customHeight="1"/>
-    <row r="113" ht="18.75" customHeight="1"/>
-    <row r="114" ht="18.75" customHeight="1"/>
-    <row r="115" ht="18.75" customHeight="1"/>
-    <row r="116" ht="18.75" customHeight="1"/>
-    <row r="117" ht="18.75" customHeight="1"/>
-    <row r="118" ht="18.75" customHeight="1"/>
-    <row r="119" ht="18.75" customHeight="1"/>
-    <row r="120" ht="18.75" customHeight="1"/>
-    <row r="121" ht="18.75" customHeight="1"/>
-    <row r="122" ht="18.75" customHeight="1"/>
-    <row r="123" ht="18.75" customHeight="1"/>
-    <row r="124" ht="18.75" customHeight="1"/>
-    <row r="125" ht="18.75" customHeight="1"/>
-    <row r="126" ht="18.75" customHeight="1"/>
-    <row r="127" ht="18.75" customHeight="1"/>
-    <row r="128" ht="18.75" customHeight="1"/>
-    <row r="129" ht="18.75" customHeight="1"/>
-    <row r="130" ht="18.75" customHeight="1"/>
-    <row r="131" ht="18.75" customHeight="1"/>
-    <row r="132" ht="18.75" customHeight="1"/>
-    <row r="133" ht="18.75" customHeight="1"/>
-    <row r="134" ht="18.75" customHeight="1"/>
-    <row r="135" ht="18.75" customHeight="1"/>
-    <row r="136" ht="18.75" customHeight="1"/>
-    <row r="137" ht="18.75" customHeight="1"/>
-    <row r="138" ht="18.75" customHeight="1"/>
-    <row r="139" ht="18.75" customHeight="1"/>
-    <row r="140" ht="18.75" customHeight="1"/>
-    <row r="141" ht="18.75" customHeight="1"/>
-    <row r="142" ht="18.75" customHeight="1"/>
-    <row r="143" ht="18.75" customHeight="1"/>
-    <row r="144" ht="18.75" customHeight="1"/>
-    <row r="145" ht="18.75" customHeight="1"/>
-    <row r="146" ht="18.75" customHeight="1"/>
-    <row r="147" ht="18.75" customHeight="1"/>
-    <row r="148" ht="18.75" customHeight="1"/>
-    <row r="149" ht="18.75" customHeight="1"/>
-    <row r="150" ht="18.75" customHeight="1"/>
-    <row r="151" ht="18.75" customHeight="1"/>
-    <row r="152" ht="18.75" customHeight="1"/>
-    <row r="153" ht="18.75" customHeight="1"/>
-    <row r="154" ht="18.75" customHeight="1"/>
-    <row r="155" ht="18.75" customHeight="1"/>
-    <row r="156" ht="18.75" customHeight="1"/>
-    <row r="157" ht="18.75" customHeight="1"/>
-    <row r="158" ht="18.75" customHeight="1"/>
-    <row r="159" ht="18.75" customHeight="1"/>
-    <row r="160" ht="18.75" customHeight="1"/>
-    <row r="161" ht="18.75" customHeight="1"/>
-    <row r="162" ht="18.75" customHeight="1"/>
-    <row r="163" ht="18.75" customHeight="1"/>
-    <row r="164" ht="18.75" customHeight="1"/>
-    <row r="165" ht="18.75" customHeight="1"/>
-    <row r="166" ht="18.75" customHeight="1"/>
-    <row r="167" ht="18.75" customHeight="1"/>
-    <row r="168" ht="18.75" customHeight="1"/>
-    <row r="169" ht="18.75" customHeight="1"/>
-    <row r="170" ht="18.75" customHeight="1"/>
-    <row r="171" ht="18.75" customHeight="1"/>
-    <row r="172" ht="18.75" customHeight="1"/>
-    <row r="173" ht="18.75" customHeight="1"/>
-    <row r="174" ht="18.75" customHeight="1"/>
-    <row r="175" ht="18.75" customHeight="1"/>
-    <row r="176" ht="18.75" customHeight="1"/>
-    <row r="177" ht="18.75" customHeight="1"/>
-    <row r="178" ht="18.75" customHeight="1"/>
-    <row r="179" ht="18.75" customHeight="1"/>
-    <row r="180" ht="18.75" customHeight="1"/>
-    <row r="181" ht="18.75" customHeight="1"/>
-    <row r="182" ht="18.75" customHeight="1"/>
-    <row r="183" ht="18.75" customHeight="1"/>
-    <row r="184" ht="18.75" customHeight="1"/>
-    <row r="185" ht="18.75" customHeight="1"/>
-    <row r="186" ht="18.75" customHeight="1"/>
-    <row r="187" ht="18.75" customHeight="1"/>
-    <row r="188" ht="18.75" customHeight="1"/>
-    <row r="189" ht="18.75" customHeight="1"/>
-    <row r="190" ht="18.75" customHeight="1"/>
-    <row r="191" ht="18.75" customHeight="1"/>
-    <row r="192" ht="18.75" customHeight="1"/>
-    <row r="193" ht="18.75" customHeight="1"/>
-    <row r="194" ht="18.75" customHeight="1"/>
-    <row r="195" ht="18.75" customHeight="1"/>
-    <row r="196" ht="18.75" customHeight="1"/>
-    <row r="197" ht="18.75" customHeight="1"/>
-    <row r="198" ht="18.75" customHeight="1"/>
-    <row r="199" ht="18.75" customHeight="1"/>
-    <row r="200" ht="18.75" customHeight="1"/>
-    <row r="201" ht="18.75" customHeight="1"/>
-    <row r="202" ht="18.75" customHeight="1"/>
-    <row r="203" ht="18.75" customHeight="1"/>
-    <row r="204" ht="18.75" customHeight="1"/>
-    <row r="205" ht="18.75" customHeight="1"/>
-    <row r="206" ht="18.75" customHeight="1"/>
-    <row r="207" ht="18.75" customHeight="1"/>
-    <row r="208" ht="18.75" customHeight="1"/>
-    <row r="209" ht="18.75" customHeight="1"/>
-    <row r="210" ht="18.75" customHeight="1"/>
-    <row r="211" ht="18.75" customHeight="1"/>
-    <row r="212" ht="18.75" customHeight="1"/>
-    <row r="213" ht="18.75" customHeight="1"/>
-    <row r="214" ht="18.75" customHeight="1"/>
-    <row r="215" ht="18.75" customHeight="1"/>
-    <row r="216" ht="18.75" customHeight="1"/>
-    <row r="217" ht="18.75" customHeight="1"/>
-    <row r="218" ht="18.75" customHeight="1"/>
-    <row r="219" ht="18.75" customHeight="1"/>
-    <row r="220" ht="18.75" customHeight="1"/>
-    <row r="221" ht="18.75" customHeight="1"/>
-    <row r="222" ht="18.75" customHeight="1"/>
-    <row r="223" ht="18.75" customHeight="1"/>
-    <row r="224" ht="18.75" customHeight="1"/>
-    <row r="225" ht="18.75" customHeight="1"/>
-    <row r="226" ht="18.75" customHeight="1"/>
-    <row r="227" ht="18.75" customHeight="1"/>
-    <row r="228" ht="18.75" customHeight="1"/>
-    <row r="229" ht="18.75" customHeight="1"/>
-    <row r="230" ht="18.75" customHeight="1"/>
-    <row r="231" ht="18.75" customHeight="1"/>
-    <row r="232" ht="18.75" customHeight="1"/>
-    <row r="233" ht="18.75" customHeight="1"/>
-    <row r="234" ht="18.75" customHeight="1"/>
-    <row r="235" ht="18.75" customHeight="1"/>
-    <row r="236" ht="18.75" customHeight="1"/>
-    <row r="237" ht="18.75" customHeight="1"/>
-    <row r="238" ht="18.75" customHeight="1"/>
-    <row r="239" ht="18.75" customHeight="1"/>
-    <row r="240" ht="18.75" customHeight="1"/>
-    <row r="241" ht="18.75" customHeight="1"/>
-    <row r="242" ht="18.75" customHeight="1"/>
-    <row r="243" ht="18.75" customHeight="1"/>
-    <row r="244" ht="18.75" customHeight="1"/>
-    <row r="245" ht="18.75" customHeight="1"/>
-    <row r="246" ht="18.75" customHeight="1"/>
-    <row r="247" ht="18.75" customHeight="1"/>
-    <row r="248" ht="18.75" customHeight="1"/>
-    <row r="249" ht="18.75" customHeight="1"/>
-    <row r="250" ht="18.75" customHeight="1"/>
-    <row r="251" ht="18.75" customHeight="1"/>
-    <row r="252" ht="18.75" customHeight="1"/>
-    <row r="253" ht="18.75" customHeight="1"/>
-    <row r="254" ht="18.75" customHeight="1"/>
-    <row r="255" ht="18.75" customHeight="1"/>
-    <row r="256" ht="18.75" customHeight="1"/>
-    <row r="257" ht="18.75" customHeight="1"/>
-    <row r="258" ht="18.75" customHeight="1"/>
-    <row r="259" ht="18.75" customHeight="1"/>
-    <row r="260" ht="18.75" customHeight="1"/>
-    <row r="261" ht="18.75" customHeight="1"/>
-    <row r="262" ht="18.75" customHeight="1"/>
-    <row r="263" ht="18.75" customHeight="1"/>
-    <row r="264" ht="18.75" customHeight="1"/>
-    <row r="265" ht="18.75" customHeight="1"/>
-    <row r="266" ht="18.75" customHeight="1"/>
-    <row r="267" ht="18.75" customHeight="1"/>
-    <row r="268" ht="18.75" customHeight="1"/>
-    <row r="269" ht="18.75" customHeight="1"/>
-    <row r="270" ht="18.75" customHeight="1"/>
-    <row r="271" ht="18.75" customHeight="1"/>
-    <row r="272" ht="18.75" customHeight="1"/>
-    <row r="273" ht="18.75" customHeight="1"/>
-    <row r="274" ht="18.75" customHeight="1"/>
-    <row r="275" ht="18.75" customHeight="1"/>
-    <row r="276" ht="18.75" customHeight="1"/>
-    <row r="277" ht="18.75" customHeight="1"/>
-    <row r="278" ht="18.75" customHeight="1"/>
-    <row r="279" ht="18.75" customHeight="1"/>
-    <row r="280" ht="18.75" customHeight="1"/>
-    <row r="281" ht="18.75" customHeight="1"/>
-    <row r="282" ht="18.75" customHeight="1"/>
-    <row r="283" ht="18.75" customHeight="1"/>
-    <row r="284" ht="18.75" customHeight="1"/>
-    <row r="285" ht="18.75" customHeight="1"/>
-    <row r="286" ht="18.75" customHeight="1"/>
-    <row r="287" ht="18.75" customHeight="1"/>
-    <row r="288" ht="18.75" customHeight="1"/>
-    <row r="289" ht="18.75" customHeight="1"/>
-    <row r="290" ht="18.75" customHeight="1"/>
-    <row r="291" ht="18.75" customHeight="1"/>
-    <row r="292" ht="18.75" customHeight="1"/>
-    <row r="293" ht="18.75" customHeight="1"/>
-    <row r="294" ht="18.75" customHeight="1"/>
-    <row r="295" ht="18.75" customHeight="1"/>
-    <row r="296" ht="18.75" customHeight="1"/>
-    <row r="297" ht="18.75" customHeight="1"/>
-    <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1"/>
-    <row r="300" ht="18.75" customHeight="1"/>
-    <row r="301" ht="18.75" customHeight="1"/>
-    <row r="302" ht="18.75" customHeight="1"/>
-    <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1"/>
-    <row r="305" ht="18.75" customHeight="1"/>
-    <row r="306" ht="18.75" customHeight="1"/>
-    <row r="307" ht="18.75" customHeight="1"/>
-    <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1"/>
-    <row r="310" ht="18.75" customHeight="1"/>
-    <row r="311" ht="18.75" customHeight="1"/>
-    <row r="312" ht="18.75" customHeight="1"/>
-    <row r="313" ht="18.75" customHeight="1"/>
-    <row r="314" ht="18.75" customHeight="1"/>
-    <row r="315" ht="18.75" customHeight="1"/>
-    <row r="316" ht="18.75" customHeight="1"/>
-    <row r="317" ht="18.75" customHeight="1"/>
-    <row r="318" ht="18.75" customHeight="1"/>
-    <row r="319" ht="18.75" customHeight="1"/>
-    <row r="320" ht="18.75" customHeight="1"/>
-    <row r="321" ht="18.75" customHeight="1"/>
-    <row r="322" ht="18.75" customHeight="1"/>
-    <row r="323" ht="18.75" customHeight="1"/>
-    <row r="324" ht="18.75" customHeight="1"/>
-    <row r="325" ht="18.75" customHeight="1"/>
-    <row r="326" ht="18.75" customHeight="1"/>
-    <row r="327" ht="18.75" customHeight="1"/>
-    <row r="328" ht="18.75" customHeight="1"/>
-    <row r="329" ht="18.75" customHeight="1"/>
-    <row r="330" ht="18.75" customHeight="1"/>
-    <row r="331" ht="18.75" customHeight="1"/>
-    <row r="332" ht="18.75" customHeight="1"/>
-    <row r="333" ht="18.75" customHeight="1"/>
-    <row r="334" ht="18.75" customHeight="1"/>
-    <row r="335" ht="18.75" customHeight="1"/>
-    <row r="336" ht="18.75" customHeight="1"/>
-    <row r="337" ht="18.75" customHeight="1"/>
-    <row r="338" ht="18.75" customHeight="1"/>
-    <row r="339" ht="18.75" customHeight="1"/>
-    <row r="340" ht="18.75" customHeight="1"/>
-    <row r="341" ht="18.75" customHeight="1"/>
-    <row r="342" ht="18.75" customHeight="1"/>
-    <row r="343" ht="18.75" customHeight="1"/>
-    <row r="344" ht="18.75" customHeight="1"/>
-    <row r="345" ht="18.75" customHeight="1"/>
-    <row r="346" ht="18.75" customHeight="1"/>
-    <row r="347" ht="18.75" customHeight="1"/>
-    <row r="348" ht="18.75" customHeight="1"/>
-    <row r="349" ht="18.75" customHeight="1"/>
-    <row r="350" ht="18.75" customHeight="1"/>
-    <row r="351" ht="18.75" customHeight="1"/>
-    <row r="352" ht="18.75" customHeight="1"/>
-    <row r="353" ht="18.75" customHeight="1"/>
-    <row r="354" ht="18.75" customHeight="1"/>
-    <row r="355" ht="18.75" customHeight="1"/>
-    <row r="356" ht="18.75" customHeight="1"/>
-    <row r="357" ht="18.75" customHeight="1"/>
-    <row r="358" ht="18.75" customHeight="1"/>
-    <row r="359" ht="18.75" customHeight="1"/>
-    <row r="360" ht="18.75" customHeight="1"/>
-    <row r="361" ht="18.75" customHeight="1"/>
-    <row r="362" ht="18.75" customHeight="1"/>
-    <row r="363" ht="18.75" customHeight="1"/>
-    <row r="364" ht="18.75" customHeight="1"/>
-    <row r="365" ht="18.75" customHeight="1"/>
-    <row r="366" ht="18.75" customHeight="1"/>
-    <row r="367" ht="18.75" customHeight="1"/>
-    <row r="368" ht="18.75" customHeight="1"/>
-    <row r="369" ht="18.75" customHeight="1"/>
-    <row r="370" ht="18.75" customHeight="1"/>
-    <row r="371" ht="18.75" customHeight="1"/>
-    <row r="372" ht="18.75" customHeight="1"/>
-    <row r="373" ht="18.75" customHeight="1"/>
-    <row r="374" ht="18.75" customHeight="1"/>
-    <row r="375" ht="18.75" customHeight="1"/>
-    <row r="376" ht="18.75" customHeight="1"/>
-    <row r="377" ht="18.75" customHeight="1"/>
-    <row r="378" ht="18.75" customHeight="1"/>
-    <row r="379" ht="18.75" customHeight="1"/>
-    <row r="380" ht="18.75" customHeight="1"/>
-    <row r="381" ht="18.75" customHeight="1"/>
-    <row r="382" ht="18.75" customHeight="1"/>
-    <row r="383" ht="18.75" customHeight="1"/>
-    <row r="384" ht="18.75" customHeight="1"/>
-    <row r="385" ht="18.75" customHeight="1"/>
-    <row r="386" ht="18.75" customHeight="1"/>
-    <row r="387" ht="18.75" customHeight="1"/>
-    <row r="388" ht="18.75" customHeight="1"/>
-    <row r="389" ht="18.75" customHeight="1"/>
-    <row r="390" ht="18.75" customHeight="1"/>
-    <row r="391" ht="18.75" customHeight="1"/>
-    <row r="392" ht="18.75" customHeight="1"/>
-    <row r="393" ht="18.75" customHeight="1"/>
-    <row r="394" ht="18.75" customHeight="1"/>
-    <row r="395" ht="18.75" customHeight="1"/>
-    <row r="396" ht="18.75" customHeight="1"/>
-    <row r="397" ht="18.75" customHeight="1"/>
-    <row r="398" ht="18.75" customHeight="1"/>
-    <row r="399" ht="18.75" customHeight="1"/>
-    <row r="400" ht="18.75" customHeight="1"/>
-    <row r="401" ht="18.75" customHeight="1"/>
-    <row r="402" ht="18.75" customHeight="1"/>
-    <row r="403" ht="18.75" customHeight="1"/>
-    <row r="404" ht="18.75" customHeight="1"/>
-    <row r="405" ht="18.75" customHeight="1"/>
-    <row r="406" ht="18.75" customHeight="1"/>
-    <row r="407" ht="18.75" customHeight="1"/>
-    <row r="408" ht="18.75" customHeight="1"/>
-    <row r="409" ht="18.75" customHeight="1"/>
-    <row r="410" ht="18.75" customHeight="1"/>
-    <row r="411" ht="18.75" customHeight="1"/>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
-    <row r="416" ht="18.75" customHeight="1"/>
-    <row r="417" ht="18.75" customHeight="1"/>
-    <row r="418" ht="18.75" customHeight="1"/>
-    <row r="419" ht="18.75" customHeight="1"/>
-    <row r="420" ht="18.75" customHeight="1"/>
-    <row r="421" ht="18.75" customHeight="1"/>
-    <row r="422" ht="18.75" customHeight="1"/>
-    <row r="423" ht="18.75" customHeight="1"/>
-    <row r="424" ht="18.75" customHeight="1"/>
-    <row r="425" ht="18.75" customHeight="1"/>
-    <row r="426" ht="18.75" customHeight="1"/>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1"/>
-    <row r="430" ht="18.75" customHeight="1"/>
-    <row r="431" ht="18.75" customHeight="1"/>
-    <row r="432" ht="18.75" customHeight="1"/>
-    <row r="433" ht="18.75" customHeight="1"/>
-    <row r="434" ht="18.75" customHeight="1"/>
-    <row r="435" ht="18.75" customHeight="1"/>
-    <row r="436" ht="18.75" customHeight="1"/>
-    <row r="437" ht="18.75" customHeight="1"/>
-    <row r="438" ht="18.75" customHeight="1"/>
-    <row r="439" ht="18.75" customHeight="1"/>
-    <row r="440" ht="18.75" customHeight="1"/>
-    <row r="441" ht="18.75" customHeight="1"/>
-    <row r="442" ht="18.75" customHeight="1"/>
-    <row r="443" ht="18.75" customHeight="1"/>
-    <row r="444" ht="18.75" customHeight="1"/>
-    <row r="445" ht="18.75" customHeight="1"/>
-    <row r="446" ht="18.75" customHeight="1"/>
-    <row r="447" ht="18.75" customHeight="1"/>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1"/>
-    <row r="450" ht="18.75" customHeight="1"/>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
-    <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
-    <row r="513" ht="18.75" customHeight="1"/>
-    <row r="514" ht="18.75" customHeight="1"/>
-    <row r="515" ht="18.75" customHeight="1"/>
-    <row r="516" ht="18.75" customHeight="1"/>
-    <row r="517" ht="18.75" customHeight="1"/>
-    <row r="518" ht="18.75" customHeight="1"/>
-    <row r="519" ht="18.75" customHeight="1"/>
-    <row r="520" ht="18.75" customHeight="1"/>
-    <row r="521" ht="18.75" customHeight="1"/>
-    <row r="522" ht="18.75" customHeight="1"/>
-    <row r="523" ht="18.75" customHeight="1"/>
-    <row r="524" ht="18.75" customHeight="1"/>
-    <row r="525" ht="18.75" customHeight="1"/>
-    <row r="526" ht="18.75" customHeight="1"/>
-    <row r="527" ht="18.75" customHeight="1"/>
-    <row r="528" ht="18.75" customHeight="1"/>
-    <row r="529" ht="18.75" customHeight="1"/>
-    <row r="530" ht="18.75" customHeight="1"/>
-    <row r="531" ht="18.75" customHeight="1"/>
-    <row r="532" ht="18.75" customHeight="1"/>
-    <row r="533" ht="18.75" customHeight="1"/>
-    <row r="534" ht="18.75" customHeight="1"/>
-    <row r="535" ht="18.75" customHeight="1"/>
-    <row r="536" ht="18.75" customHeight="1"/>
-    <row r="537" ht="18.75" customHeight="1"/>
-    <row r="538" ht="18.75" customHeight="1"/>
-    <row r="539" ht="18.75" customHeight="1"/>
-    <row r="540" ht="18.75" customHeight="1"/>
-    <row r="541" ht="18.75" customHeight="1"/>
-    <row r="542" ht="18.75" customHeight="1"/>
-    <row r="543" ht="18.75" customHeight="1"/>
-    <row r="544" ht="18.75" customHeight="1"/>
-    <row r="545" ht="18.75" customHeight="1"/>
-    <row r="546" ht="18.75" customHeight="1"/>
-    <row r="547" ht="18.75" customHeight="1"/>
-    <row r="548" ht="18.75" customHeight="1"/>
-    <row r="549" ht="18.75" customHeight="1"/>
-    <row r="550" ht="18.75" customHeight="1"/>
-    <row r="551" ht="18.75" customHeight="1"/>
-    <row r="552" ht="18.75" customHeight="1"/>
-    <row r="553" ht="18.75" customHeight="1"/>
-    <row r="554" ht="18.75" customHeight="1"/>
-    <row r="555" ht="18.75" customHeight="1"/>
-    <row r="556" ht="18.75" customHeight="1"/>
-    <row r="557" ht="18.75" customHeight="1"/>
-    <row r="558" ht="18.75" customHeight="1"/>
-    <row r="559" ht="18.75" customHeight="1"/>
-    <row r="560" ht="18.75" customHeight="1"/>
-    <row r="561" ht="18.75" customHeight="1"/>
-    <row r="562" ht="18.75" customHeight="1"/>
-    <row r="563" ht="18.75" customHeight="1"/>
-    <row r="564" ht="18.75" customHeight="1"/>
-    <row r="565" ht="18.75" customHeight="1"/>
-    <row r="566" ht="18.75" customHeight="1"/>
-    <row r="567" ht="18.75" customHeight="1"/>
-    <row r="568" ht="18.75" customHeight="1"/>
-    <row r="569" ht="18.75" customHeight="1"/>
-    <row r="570" ht="18.75" customHeight="1"/>
-    <row r="571" ht="18.75" customHeight="1"/>
-    <row r="572" ht="18.75" customHeight="1"/>
-    <row r="573" ht="18.75" customHeight="1"/>
-    <row r="574" ht="18.75" customHeight="1"/>
-    <row r="575" ht="18.75" customHeight="1"/>
-    <row r="576" ht="18.75" customHeight="1"/>
-    <row r="577" ht="18.75" customHeight="1"/>
-    <row r="578" ht="18.75" customHeight="1"/>
-    <row r="579" ht="18.75" customHeight="1"/>
-    <row r="580" ht="18.75" customHeight="1"/>
-    <row r="581" ht="18.75" customHeight="1"/>
-    <row r="582" ht="18.75" customHeight="1"/>
-    <row r="583" ht="18.75" customHeight="1"/>
-    <row r="584" ht="18.75" customHeight="1"/>
-    <row r="585" ht="18.75" customHeight="1"/>
-    <row r="586" ht="18.75" customHeight="1"/>
-    <row r="587" ht="18.75" customHeight="1"/>
-    <row r="588" ht="18.75" customHeight="1"/>
-    <row r="589" ht="18.75" customHeight="1"/>
-    <row r="590" ht="18.75" customHeight="1"/>
-    <row r="591" ht="18.75" customHeight="1"/>
-    <row r="592" ht="18.75" customHeight="1"/>
-    <row r="593" ht="18.75" customHeight="1"/>
-    <row r="594" ht="18.75" customHeight="1"/>
-    <row r="595" ht="18.75" customHeight="1"/>
-    <row r="596" ht="18.75" customHeight="1"/>
-    <row r="597" ht="18.75" customHeight="1"/>
-    <row r="598" ht="18.75" customHeight="1"/>
-    <row r="599" ht="18.75" customHeight="1"/>
-    <row r="600" ht="18.75" customHeight="1"/>
-    <row r="601" ht="18.75" customHeight="1"/>
-    <row r="602" ht="18.75" customHeight="1"/>
-    <row r="603" ht="18.75" customHeight="1"/>
-    <row r="604" ht="18.75" customHeight="1"/>
-    <row r="605" ht="18.75" customHeight="1"/>
-    <row r="606" ht="18.75" customHeight="1"/>
-    <row r="607" ht="18.75" customHeight="1"/>
-    <row r="608" ht="18.75" customHeight="1"/>
-    <row r="609" ht="18.75" customHeight="1"/>
-    <row r="610" ht="18.75" customHeight="1"/>
-    <row r="611" ht="18.75" customHeight="1"/>
-    <row r="612" ht="18.75" customHeight="1"/>
-    <row r="613" ht="18.75" customHeight="1"/>
-    <row r="614" ht="18.75" customHeight="1"/>
-    <row r="615" ht="18.75" customHeight="1"/>
-    <row r="616" ht="18.75" customHeight="1"/>
-    <row r="617" ht="18.75" customHeight="1"/>
-    <row r="618" ht="18.75" customHeight="1"/>
-    <row r="619" ht="18.75" customHeight="1"/>
-    <row r="620" ht="18.75" customHeight="1"/>
-    <row r="621" ht="18.75" customHeight="1"/>
-    <row r="622" ht="18.75" customHeight="1"/>
-    <row r="623" ht="18.75" customHeight="1"/>
-    <row r="624" ht="18.75" customHeight="1"/>
-    <row r="625" ht="18.75" customHeight="1"/>
-    <row r="626" ht="18.75" customHeight="1"/>
-    <row r="627" ht="18.75" customHeight="1"/>
-    <row r="628" ht="18.75" customHeight="1"/>
-    <row r="629" ht="18.75" customHeight="1"/>
-    <row r="630" ht="18.75" customHeight="1"/>
-    <row r="631" ht="18.75" customHeight="1"/>
-    <row r="632" ht="18.75" customHeight="1"/>
-    <row r="633" ht="18.75" customHeight="1"/>
-    <row r="634" ht="18.75" customHeight="1"/>
-    <row r="635" ht="18.75" customHeight="1"/>
-    <row r="636" ht="18.75" customHeight="1"/>
-    <row r="637" ht="18.75" customHeight="1"/>
-    <row r="638" ht="18.75" customHeight="1"/>
-    <row r="639" ht="18.75" customHeight="1"/>
-    <row r="640" ht="18.75" customHeight="1"/>
-    <row r="641" ht="18.75" customHeight="1"/>
-    <row r="642" ht="18.75" customHeight="1"/>
-    <row r="643" ht="18.75" customHeight="1"/>
-    <row r="644" ht="18.75" customHeight="1"/>
-    <row r="645" ht="18.75" customHeight="1"/>
-    <row r="646" ht="18.75" customHeight="1"/>
-    <row r="647" ht="18.75" customHeight="1"/>
-    <row r="648" ht="18.75" customHeight="1"/>
-    <row r="649" ht="18.75" customHeight="1"/>
-    <row r="650" ht="18.75" customHeight="1"/>
-    <row r="651" ht="18.75" customHeight="1"/>
-    <row r="652" ht="18.75" customHeight="1"/>
-    <row r="653" ht="18.75" customHeight="1"/>
-    <row r="654" ht="18.75" customHeight="1"/>
-    <row r="655" ht="18.75" customHeight="1"/>
-    <row r="656" ht="18.75" customHeight="1"/>
-    <row r="657" ht="18.75" customHeight="1"/>
-    <row r="658" ht="18.75" customHeight="1"/>
-    <row r="659" ht="18.75" customHeight="1"/>
-    <row r="660" ht="18.75" customHeight="1"/>
-    <row r="661" ht="18.75" customHeight="1"/>
-    <row r="662" ht="18.75" customHeight="1"/>
-    <row r="663" ht="18.75" customHeight="1"/>
-    <row r="664" ht="18.75" customHeight="1"/>
-    <row r="665" ht="18.75" customHeight="1"/>
-    <row r="666" ht="18.75" customHeight="1"/>
-    <row r="667" ht="18.75" customHeight="1"/>
-    <row r="668" ht="18.75" customHeight="1"/>
-    <row r="669" ht="18.75" customHeight="1"/>
-    <row r="670" ht="18.75" customHeight="1"/>
-    <row r="671" ht="18.75" customHeight="1"/>
-    <row r="672" ht="18.75" customHeight="1"/>
-    <row r="673" ht="18.75" customHeight="1"/>
-    <row r="674" ht="18.75" customHeight="1"/>
-    <row r="675" ht="18.75" customHeight="1"/>
-    <row r="676" ht="18.75" customHeight="1"/>
-    <row r="677" ht="18.75" customHeight="1"/>
-    <row r="678" ht="18.75" customHeight="1"/>
-    <row r="679" ht="18.75" customHeight="1"/>
-    <row r="680" ht="18.75" customHeight="1"/>
-    <row r="681" ht="18.75" customHeight="1"/>
-    <row r="682" ht="18.75" customHeight="1"/>
-    <row r="683" ht="18.75" customHeight="1"/>
-    <row r="684" ht="18.75" customHeight="1"/>
-    <row r="685" ht="18.75" customHeight="1"/>
-    <row r="686" ht="18.75" customHeight="1"/>
-    <row r="687" ht="18.75" customHeight="1"/>
-    <row r="688" ht="18.75" customHeight="1"/>
-    <row r="689" ht="18.75" customHeight="1"/>
-    <row r="690" ht="18.75" customHeight="1"/>
-    <row r="691" ht="18.75" customHeight="1"/>
-    <row r="692" ht="18.75" customHeight="1"/>
-    <row r="693" ht="18.75" customHeight="1"/>
-    <row r="694" ht="18.75" customHeight="1"/>
-    <row r="695" ht="18.75" customHeight="1"/>
-    <row r="696" ht="18.75" customHeight="1"/>
-    <row r="697" ht="18.75" customHeight="1"/>
-    <row r="698" ht="18.75" customHeight="1"/>
-    <row r="699" ht="18.75" customHeight="1"/>
-    <row r="700" ht="18.75" customHeight="1"/>
-    <row r="701" ht="18.75" customHeight="1"/>
-    <row r="702" ht="18.75" customHeight="1"/>
-    <row r="703" ht="18.75" customHeight="1"/>
-    <row r="704" ht="18.75" customHeight="1"/>
-    <row r="705" ht="18.75" customHeight="1"/>
-    <row r="706" ht="18.75" customHeight="1"/>
-    <row r="707" ht="18.75" customHeight="1"/>
-    <row r="708" ht="18.75" customHeight="1"/>
-    <row r="709" ht="18.75" customHeight="1"/>
-    <row r="710" ht="18.75" customHeight="1"/>
-    <row r="711" ht="18.75" customHeight="1"/>
-    <row r="712" ht="18.75" customHeight="1"/>
-    <row r="713" ht="18.75" customHeight="1"/>
-    <row r="714" ht="18.75" customHeight="1"/>
-    <row r="715" ht="18.75" customHeight="1"/>
-    <row r="716" ht="18.75" customHeight="1"/>
-    <row r="717" ht="18.75" customHeight="1"/>
-    <row r="718" ht="18.75" customHeight="1"/>
-    <row r="719" ht="18.75" customHeight="1"/>
-    <row r="720" ht="18.75" customHeight="1"/>
-    <row r="721" ht="18.75" customHeight="1"/>
-    <row r="722" ht="18.75" customHeight="1"/>
-    <row r="723" ht="18.75" customHeight="1"/>
-    <row r="724" ht="18.75" customHeight="1"/>
-    <row r="725" ht="18.75" customHeight="1"/>
-    <row r="726" ht="18.75" customHeight="1"/>
-    <row r="727" ht="18.75" customHeight="1"/>
-    <row r="728" ht="18.75" customHeight="1"/>
-    <row r="729" ht="18.75" customHeight="1"/>
-    <row r="730" ht="18.75" customHeight="1"/>
-    <row r="731" ht="18.75" customHeight="1"/>
-    <row r="732" ht="18.75" customHeight="1"/>
-    <row r="733" ht="18.75" customHeight="1"/>
-    <row r="734" ht="18.75" customHeight="1"/>
-    <row r="735" ht="18.75" customHeight="1"/>
-    <row r="736" ht="18.75" customHeight="1"/>
-    <row r="737" ht="18.75" customHeight="1"/>
-    <row r="738" ht="18.75" customHeight="1"/>
-    <row r="739" ht="18.75" customHeight="1"/>
-    <row r="740" ht="18.75" customHeight="1"/>
-    <row r="741" ht="18.75" customHeight="1"/>
-    <row r="742" ht="18.75" customHeight="1"/>
-    <row r="743" ht="18.75" customHeight="1"/>
-    <row r="744" ht="18.75" customHeight="1"/>
-    <row r="745" ht="18.75" customHeight="1"/>
-    <row r="746" ht="18.75" customHeight="1"/>
-    <row r="747" ht="18.75" customHeight="1"/>
-    <row r="748" ht="18.75" customHeight="1"/>
-    <row r="749" ht="18.75" customHeight="1"/>
-    <row r="750" ht="18.75" customHeight="1"/>
-    <row r="751" ht="18.75" customHeight="1"/>
-    <row r="752" ht="18.75" customHeight="1"/>
-    <row r="753" ht="18.75" customHeight="1"/>
-    <row r="754" ht="18.75" customHeight="1"/>
-    <row r="755" ht="18.75" customHeight="1"/>
-    <row r="756" ht="18.75" customHeight="1"/>
-    <row r="757" ht="18.75" customHeight="1"/>
-    <row r="758" ht="18.75" customHeight="1"/>
-    <row r="759" ht="18.75" customHeight="1"/>
-    <row r="760" ht="18.75" customHeight="1"/>
-    <row r="761" ht="18.75" customHeight="1"/>
-    <row r="762" ht="18.75" customHeight="1"/>
-    <row r="763" ht="18.75" customHeight="1"/>
-    <row r="764" ht="18.75" customHeight="1"/>
-    <row r="765" ht="18.75" customHeight="1"/>
-    <row r="766" ht="18.75" customHeight="1"/>
-    <row r="767" ht="18.75" customHeight="1"/>
-    <row r="768" ht="18.75" customHeight="1"/>
-    <row r="769" ht="18.75" customHeight="1"/>
-    <row r="770" ht="18.75" customHeight="1"/>
-    <row r="771" ht="18.75" customHeight="1"/>
-    <row r="772" ht="18.75" customHeight="1"/>
-    <row r="773" ht="18.75" customHeight="1"/>
-    <row r="774" ht="18.75" customHeight="1"/>
-    <row r="775" ht="18.75" customHeight="1"/>
-    <row r="776" ht="18.75" customHeight="1"/>
-    <row r="777" ht="18.75" customHeight="1"/>
-    <row r="778" ht="18.75" customHeight="1"/>
-    <row r="779" ht="18.75" customHeight="1"/>
-    <row r="780" ht="18.75" customHeight="1"/>
-    <row r="781" ht="18.75" customHeight="1"/>
-    <row r="782" ht="18.75" customHeight="1"/>
-    <row r="783" ht="18.75" customHeight="1"/>
-    <row r="784" ht="18.75" customHeight="1"/>
-    <row r="785" ht="18.75" customHeight="1"/>
-    <row r="786" ht="18.75" customHeight="1"/>
-    <row r="787" ht="18.75" customHeight="1"/>
-    <row r="788" ht="18.75" customHeight="1"/>
-    <row r="789" ht="18.75" customHeight="1"/>
-    <row r="790" ht="18.75" customHeight="1"/>
-    <row r="791" ht="18.75" customHeight="1"/>
-    <row r="792" ht="18.75" customHeight="1"/>
-    <row r="793" ht="18.75" customHeight="1"/>
-    <row r="794" ht="18.75" customHeight="1"/>
-    <row r="795" ht="18.75" customHeight="1"/>
-    <row r="796" ht="18.75" customHeight="1"/>
-    <row r="797" ht="18.75" customHeight="1"/>
-    <row r="798" ht="18.75" customHeight="1"/>
-    <row r="799" ht="18.75" customHeight="1"/>
-    <row r="800" ht="18.75" customHeight="1"/>
-    <row r="801" ht="18.75" customHeight="1"/>
-    <row r="802" ht="18.75" customHeight="1"/>
-    <row r="803" ht="18.75" customHeight="1"/>
-    <row r="804" ht="18.75" customHeight="1"/>
-    <row r="805" ht="18.75" customHeight="1"/>
-    <row r="806" ht="18.75" customHeight="1"/>
-    <row r="807" ht="18.75" customHeight="1"/>
-    <row r="808" ht="18.75" customHeight="1"/>
-    <row r="809" ht="18.75" customHeight="1"/>
-    <row r="810" ht="18.75" customHeight="1"/>
-    <row r="811" ht="18.75" customHeight="1"/>
-    <row r="812" ht="18.75" customHeight="1"/>
-    <row r="813" ht="18.75" customHeight="1"/>
-    <row r="814" ht="18.75" customHeight="1"/>
-    <row r="815" ht="18.75" customHeight="1"/>
-    <row r="816" ht="18.75" customHeight="1"/>
-    <row r="817" ht="18.75" customHeight="1"/>
-    <row r="818" ht="18.75" customHeight="1"/>
-    <row r="819" ht="18.75" customHeight="1"/>
-    <row r="820" ht="18.75" customHeight="1"/>
-    <row r="821" ht="18.75" customHeight="1"/>
-    <row r="822" ht="18.75" customHeight="1"/>
-    <row r="823" ht="18.75" customHeight="1"/>
-    <row r="824" ht="18.75" customHeight="1"/>
-    <row r="825" ht="18.75" customHeight="1"/>
-    <row r="826" ht="18.75" customHeight="1"/>
-    <row r="827" ht="18.75" customHeight="1"/>
-    <row r="828" ht="18.75" customHeight="1"/>
-    <row r="829" ht="18.75" customHeight="1"/>
-    <row r="830" ht="18.75" customHeight="1"/>
-    <row r="831" ht="18.75" customHeight="1"/>
-    <row r="832" ht="18.75" customHeight="1"/>
-    <row r="833" ht="18.75" customHeight="1"/>
-    <row r="834" ht="18.75" customHeight="1"/>
-    <row r="835" ht="18.75" customHeight="1"/>
-    <row r="836" ht="18.75" customHeight="1"/>
-    <row r="837" ht="18.75" customHeight="1"/>
-    <row r="838" ht="18.75" customHeight="1"/>
-    <row r="839" ht="18.75" customHeight="1"/>
-    <row r="840" ht="18.75" customHeight="1"/>
-    <row r="841" ht="18.75" customHeight="1"/>
-    <row r="842" ht="18.75" customHeight="1"/>
-    <row r="843" ht="18.75" customHeight="1"/>
-    <row r="844" ht="18.75" customHeight="1"/>
-    <row r="845" ht="18.75" customHeight="1"/>
-    <row r="846" ht="18.75" customHeight="1"/>
-    <row r="847" ht="18.75" customHeight="1"/>
-    <row r="848" ht="18.75" customHeight="1"/>
-    <row r="849" ht="18.75" customHeight="1"/>
-    <row r="850" ht="18.75" customHeight="1"/>
-    <row r="851" ht="18.75" customHeight="1"/>
-    <row r="852" ht="18.75" customHeight="1"/>
-    <row r="853" ht="18.75" customHeight="1"/>
-    <row r="854" ht="18.75" customHeight="1"/>
-    <row r="855" ht="18.75" customHeight="1"/>
-    <row r="856" ht="18.75" customHeight="1"/>
-    <row r="857" ht="18.75" customHeight="1"/>
-    <row r="858" ht="18.75" customHeight="1"/>
-    <row r="859" ht="18.75" customHeight="1"/>
-    <row r="860" ht="18.75" customHeight="1"/>
-    <row r="861" ht="18.75" customHeight="1"/>
-    <row r="862" ht="18.75" customHeight="1"/>
-    <row r="863" ht="18.75" customHeight="1"/>
-    <row r="864" ht="18.75" customHeight="1"/>
-    <row r="865" ht="18.75" customHeight="1"/>
-    <row r="866" ht="18.75" customHeight="1"/>
-    <row r="867" ht="18.75" customHeight="1"/>
-    <row r="868" ht="18.75" customHeight="1"/>
-    <row r="869" ht="18.75" customHeight="1"/>
-    <row r="870" ht="18.75" customHeight="1"/>
-    <row r="871" ht="18.75" customHeight="1"/>
-    <row r="872" ht="18.75" customHeight="1"/>
-    <row r="873" ht="18.75" customHeight="1"/>
-    <row r="874" ht="18.75" customHeight="1"/>
-    <row r="875" ht="18.75" customHeight="1"/>
-    <row r="876" ht="18.75" customHeight="1"/>
-    <row r="877" ht="18.75" customHeight="1"/>
-    <row r="878" ht="18.75" customHeight="1"/>
-    <row r="879" ht="18.75" customHeight="1"/>
-    <row r="880" ht="18.75" customHeight="1"/>
-    <row r="881" ht="18.75" customHeight="1"/>
-    <row r="882" ht="18.75" customHeight="1"/>
-    <row r="883" ht="18.75" customHeight="1"/>
-    <row r="884" ht="18.75" customHeight="1"/>
-    <row r="885" ht="18.75" customHeight="1"/>
-    <row r="886" ht="18.75" customHeight="1"/>
-    <row r="887" ht="18.75" customHeight="1"/>
-    <row r="888" ht="18.75" customHeight="1"/>
-    <row r="889" ht="18.75" customHeight="1"/>
-    <row r="890" ht="18.75" customHeight="1"/>
-    <row r="891" ht="18.75" customHeight="1"/>
-    <row r="892" ht="18.75" customHeight="1"/>
-    <row r="893" ht="18.75" customHeight="1"/>
-    <row r="894" ht="18.75" customHeight="1"/>
-    <row r="895" ht="18.75" customHeight="1"/>
-    <row r="896" ht="18.75" customHeight="1"/>
-    <row r="897" ht="18.75" customHeight="1"/>
-    <row r="898" ht="18.75" customHeight="1"/>
-    <row r="899" ht="18.75" customHeight="1"/>
-    <row r="900" ht="18.75" customHeight="1"/>
-    <row r="901" ht="18.75" customHeight="1"/>
-    <row r="902" ht="18.75" customHeight="1"/>
-    <row r="903" ht="18.75" customHeight="1"/>
-    <row r="904" ht="18.75" customHeight="1"/>
-    <row r="905" ht="18.75" customHeight="1"/>
-    <row r="906" ht="18.75" customHeight="1"/>
-    <row r="907" ht="18.75" customHeight="1"/>
-    <row r="908" ht="18.75" customHeight="1"/>
-    <row r="909" ht="18.75" customHeight="1"/>
-    <row r="910" ht="18.75" customHeight="1"/>
-    <row r="911" ht="18.75" customHeight="1"/>
-    <row r="912" ht="18.75" customHeight="1"/>
-    <row r="913" ht="18.75" customHeight="1"/>
-    <row r="914" ht="18.75" customHeight="1"/>
-    <row r="915" ht="18.75" customHeight="1"/>
-    <row r="916" ht="18.75" customHeight="1"/>
-    <row r="917" ht="18.75" customHeight="1"/>
-    <row r="918" ht="18.75" customHeight="1"/>
-    <row r="919" ht="18.75" customHeight="1"/>
-    <row r="920" ht="18.75" customHeight="1"/>
-    <row r="921" ht="18.75" customHeight="1"/>
-    <row r="922" ht="18.75" customHeight="1"/>
-    <row r="923" ht="18.75" customHeight="1"/>
-    <row r="924" ht="18.75" customHeight="1"/>
-    <row r="925" ht="18.75" customHeight="1"/>
-    <row r="926" ht="18.75" customHeight="1"/>
-    <row r="927" ht="18.75" customHeight="1"/>
-    <row r="928" ht="18.75" customHeight="1"/>
-    <row r="929" ht="18.75" customHeight="1"/>
-    <row r="930" ht="18.75" customHeight="1"/>
-    <row r="931" ht="18.75" customHeight="1"/>
-    <row r="932" ht="18.75" customHeight="1"/>
-    <row r="933" ht="18.75" customHeight="1"/>
-    <row r="934" ht="18.75" customHeight="1"/>
-    <row r="935" ht="18.75" customHeight="1"/>
-    <row r="936" ht="18.75" customHeight="1"/>
-    <row r="937" ht="18.75" customHeight="1"/>
-    <row r="938" ht="18.75" customHeight="1"/>
-    <row r="939" ht="18.75" customHeight="1"/>
-    <row r="940" ht="18.75" customHeight="1"/>
-    <row r="941" ht="18.75" customHeight="1"/>
-    <row r="942" ht="18.75" customHeight="1"/>
-    <row r="943" ht="18.75" customHeight="1"/>
-    <row r="944" ht="18.75" customHeight="1"/>
-    <row r="945" ht="18.75" customHeight="1"/>
-    <row r="946" ht="18.75" customHeight="1"/>
-    <row r="947" ht="18.75" customHeight="1"/>
-    <row r="948" ht="18.75" customHeight="1"/>
-    <row r="949" ht="18.75" customHeight="1"/>
-    <row r="950" ht="18.75" customHeight="1"/>
-    <row r="951" ht="18.75" customHeight="1"/>
-    <row r="952" ht="18.75" customHeight="1"/>
-    <row r="953" ht="18.75" customHeight="1"/>
-    <row r="954" ht="18.75" customHeight="1"/>
-    <row r="955" ht="18.75" customHeight="1"/>
-    <row r="956" ht="18.75" customHeight="1"/>
-    <row r="957" ht="18.75" customHeight="1"/>
-    <row r="958" ht="18.75" customHeight="1"/>
-    <row r="959" ht="18.75" customHeight="1"/>
-    <row r="960" ht="18.75" customHeight="1"/>
-    <row r="961" ht="18.75" customHeight="1"/>
-    <row r="962" ht="18.75" customHeight="1"/>
-    <row r="963" ht="18.75" customHeight="1"/>
-    <row r="964" ht="18.75" customHeight="1"/>
-    <row r="965" ht="18.75" customHeight="1"/>
-    <row r="966" ht="18.75" customHeight="1"/>
-    <row r="967" ht="18.75" customHeight="1"/>
-    <row r="968" ht="18.75" customHeight="1"/>
-    <row r="969" ht="18.75" customHeight="1"/>
-    <row r="970" ht="18.75" customHeight="1"/>
-    <row r="971" ht="18.75" customHeight="1"/>
-    <row r="972" ht="18.75" customHeight="1"/>
-    <row r="973" ht="18.75" customHeight="1"/>
-    <row r="974" ht="18.75" customHeight="1"/>
-    <row r="975" ht="18.75" customHeight="1"/>
-    <row r="976" ht="18.75" customHeight="1"/>
-    <row r="977" ht="18.75" customHeight="1"/>
-    <row r="978" ht="18.75" customHeight="1"/>
-    <row r="979" ht="18.75" customHeight="1"/>
-    <row r="980" ht="18.75" customHeight="1"/>
-    <row r="981" ht="18.75" customHeight="1"/>
-    <row r="982" ht="18.75" customHeight="1"/>
-    <row r="983" ht="18.75" customHeight="1"/>
-    <row r="984" ht="18.75" customHeight="1"/>
-    <row r="985" ht="18.75" customHeight="1"/>
-    <row r="986" ht="18.75" customHeight="1"/>
-    <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
-    <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF5DEDB-A5F9-4A36-A77C-C8ABD8510F5D}">
-  <dimension ref="A1:A1000"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="26" width="8.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1"/>
-    <row r="2" ht="18.75" customHeight="1"/>
-    <row r="3" ht="18.75" customHeight="1"/>
-    <row r="4" ht="18.75" customHeight="1"/>
-    <row r="5" ht="18.75" customHeight="1"/>
-    <row r="6" ht="18.75" customHeight="1"/>
-    <row r="7" ht="18.75" customHeight="1"/>
-    <row r="8" ht="18.75" customHeight="1"/>
-    <row r="9" ht="18.75" customHeight="1"/>
-    <row r="10" ht="18.75" customHeight="1"/>
-    <row r="11" ht="18.75" customHeight="1"/>
-    <row r="12" ht="18.75" customHeight="1"/>
-    <row r="13" ht="18.75" customHeight="1"/>
-    <row r="14" ht="18.75" customHeight="1"/>
-    <row r="15" ht="18.75" customHeight="1"/>
-    <row r="16" ht="18.75" customHeight="1"/>
-    <row r="17" ht="18.75" customHeight="1"/>
-    <row r="18" ht="18.75" customHeight="1"/>
-    <row r="19" ht="18.75" customHeight="1"/>
-    <row r="20" ht="18.75" customHeight="1"/>
-    <row r="21" ht="18.75" customHeight="1"/>
-    <row r="22" ht="18.75" customHeight="1"/>
-    <row r="23" ht="18.75" customHeight="1"/>
-    <row r="24" ht="18.75" customHeight="1"/>
-    <row r="25" ht="18.75" customHeight="1"/>
-    <row r="26" ht="18.75" customHeight="1"/>
-    <row r="27" ht="18.75" customHeight="1"/>
-    <row r="28" ht="18.75" customHeight="1"/>
-    <row r="29" ht="18.75" customHeight="1"/>
-    <row r="30" ht="18.75" customHeight="1"/>
-    <row r="31" ht="18.75" customHeight="1"/>
-    <row r="32" ht="18.75" customHeight="1"/>
-    <row r="33" ht="18.75" customHeight="1"/>
-    <row r="34" ht="18.75" customHeight="1"/>
-    <row r="35" ht="18.75" customHeight="1"/>
-    <row r="36" ht="18.75" customHeight="1"/>
-    <row r="37" ht="18.75" customHeight="1"/>
-    <row r="38" ht="18.75" customHeight="1"/>
-    <row r="39" ht="18.75" customHeight="1"/>
-    <row r="40" ht="18.75" customHeight="1"/>
-    <row r="41" ht="18.75" customHeight="1"/>
-    <row r="42" ht="18.75" customHeight="1"/>
-    <row r="43" ht="18.75" customHeight="1"/>
-    <row r="44" ht="18.75" customHeight="1"/>
-    <row r="45" ht="18.75" customHeight="1"/>
-    <row r="46" ht="18.75" customHeight="1"/>
-    <row r="47" ht="18.75" customHeight="1"/>
-    <row r="48" ht="18.75" customHeight="1"/>
-    <row r="49" ht="18.75" customHeight="1"/>
-    <row r="50" ht="18.75" customHeight="1"/>
-    <row r="51" ht="18.75" customHeight="1"/>
-    <row r="52" ht="18.75" customHeight="1"/>
-    <row r="53" ht="18.75" customHeight="1"/>
-    <row r="54" ht="18.75" customHeight="1"/>
-    <row r="55" ht="18.75" customHeight="1"/>
-    <row r="56" ht="18.75" customHeight="1"/>
-    <row r="57" ht="18.75" customHeight="1"/>
-    <row r="58" ht="18.75" customHeight="1"/>
-    <row r="59" ht="18.75" customHeight="1"/>
-    <row r="60" ht="18.75" customHeight="1"/>
-    <row r="61" ht="18.75" customHeight="1"/>
-    <row r="62" ht="18.75" customHeight="1"/>
-    <row r="63" ht="18.75" customHeight="1"/>
-    <row r="64" ht="18.75" customHeight="1"/>
-    <row r="65" ht="18.75" customHeight="1"/>
-    <row r="66" ht="18.75" customHeight="1"/>
-    <row r="67" ht="18.75" customHeight="1"/>
-    <row r="68" ht="18.75" customHeight="1"/>
-    <row r="69" ht="18.75" customHeight="1"/>
-    <row r="70" ht="18.75" customHeight="1"/>
-    <row r="71" ht="18.75" customHeight="1"/>
-    <row r="72" ht="18.75" customHeight="1"/>
-    <row r="73" ht="18.75" customHeight="1"/>
-    <row r="74" ht="18.75" customHeight="1"/>
-    <row r="75" ht="18.75" customHeight="1"/>
-    <row r="76" ht="18.75" customHeight="1"/>
-    <row r="77" ht="18.75" customHeight="1"/>
-    <row r="78" ht="18.75" customHeight="1"/>
-    <row r="79" ht="18.75" customHeight="1"/>
-    <row r="80" ht="18.75" customHeight="1"/>
-    <row r="81" ht="18.75" customHeight="1"/>
-    <row r="82" ht="18.75" customHeight="1"/>
-    <row r="83" ht="18.75" customHeight="1"/>
-    <row r="84" ht="18.75" customHeight="1"/>
-    <row r="85" ht="18.75" customHeight="1"/>
-    <row r="86" ht="18.75" customHeight="1"/>
-    <row r="87" ht="18.75" customHeight="1"/>
-    <row r="88" ht="18.75" customHeight="1"/>
-    <row r="89" ht="18.75" customHeight="1"/>
-    <row r="90" ht="18.75" customHeight="1"/>
-    <row r="91" ht="18.75" customHeight="1"/>
-    <row r="92" ht="18.75" customHeight="1"/>
-    <row r="93" ht="18.75" customHeight="1"/>
-    <row r="94" ht="18.75" customHeight="1"/>
-    <row r="95" ht="18.75" customHeight="1"/>
-    <row r="96" ht="18.75" customHeight="1"/>
-    <row r="97" ht="18.75" customHeight="1"/>
-    <row r="98" ht="18.75" customHeight="1"/>
-    <row r="99" ht="18.75" customHeight="1"/>
-    <row r="100" ht="18.75" customHeight="1"/>
-    <row r="101" ht="18.75" customHeight="1"/>
-    <row r="102" ht="18.75" customHeight="1"/>
-    <row r="103" ht="18.75" customHeight="1"/>
-    <row r="104" ht="18.75" customHeight="1"/>
-    <row r="105" ht="18.75" customHeight="1"/>
-    <row r="106" ht="18.75" customHeight="1"/>
-    <row r="107" ht="18.75" customHeight="1"/>
-    <row r="108" ht="18.75" customHeight="1"/>
-    <row r="109" ht="18.75" customHeight="1"/>
-    <row r="110" ht="18.75" customHeight="1"/>
-    <row r="111" ht="18.75" customHeight="1"/>
-    <row r="112" ht="18.75" customHeight="1"/>
-    <row r="113" ht="18.75" customHeight="1"/>
-    <row r="114" ht="18.75" customHeight="1"/>
-    <row r="115" ht="18.75" customHeight="1"/>
-    <row r="116" ht="18.75" customHeight="1"/>
-    <row r="117" ht="18.75" customHeight="1"/>
-    <row r="118" ht="18.75" customHeight="1"/>
-    <row r="119" ht="18.75" customHeight="1"/>
-    <row r="120" ht="18.75" customHeight="1"/>
-    <row r="121" ht="18.75" customHeight="1"/>
-    <row r="122" ht="18.75" customHeight="1"/>
-    <row r="123" ht="18.75" customHeight="1"/>
-    <row r="124" ht="18.75" customHeight="1"/>
-    <row r="125" ht="18.75" customHeight="1"/>
-    <row r="126" ht="18.75" customHeight="1"/>
-    <row r="127" ht="18.75" customHeight="1"/>
-    <row r="128" ht="18.75" customHeight="1"/>
-    <row r="129" ht="18.75" customHeight="1"/>
-    <row r="130" ht="18.75" customHeight="1"/>
-    <row r="131" ht="18.75" customHeight="1"/>
-    <row r="132" ht="18.75" customHeight="1"/>
-    <row r="133" ht="18.75" customHeight="1"/>
-    <row r="134" ht="18.75" customHeight="1"/>
-    <row r="135" ht="18.75" customHeight="1"/>
-    <row r="136" ht="18.75" customHeight="1"/>
-    <row r="137" ht="18.75" customHeight="1"/>
-    <row r="138" ht="18.75" customHeight="1"/>
-    <row r="139" ht="18.75" customHeight="1"/>
-    <row r="140" ht="18.75" customHeight="1"/>
-    <row r="141" ht="18.75" customHeight="1"/>
-    <row r="142" ht="18.75" customHeight="1"/>
-    <row r="143" ht="18.75" customHeight="1"/>
-    <row r="144" ht="18.75" customHeight="1"/>
-    <row r="145" ht="18.75" customHeight="1"/>
-    <row r="146" ht="18.75" customHeight="1"/>
-    <row r="147" ht="18.75" customHeight="1"/>
-    <row r="148" ht="18.75" customHeight="1"/>
-    <row r="149" ht="18.75" customHeight="1"/>
-    <row r="150" ht="18.75" customHeight="1"/>
-    <row r="151" ht="18.75" customHeight="1"/>
-    <row r="152" ht="18.75" customHeight="1"/>
-    <row r="153" ht="18.75" customHeight="1"/>
-    <row r="154" ht="18.75" customHeight="1"/>
-    <row r="155" ht="18.75" customHeight="1"/>
-    <row r="156" ht="18.75" customHeight="1"/>
-    <row r="157" ht="18.75" customHeight="1"/>
-    <row r="158" ht="18.75" customHeight="1"/>
-    <row r="159" ht="18.75" customHeight="1"/>
-    <row r="160" ht="18.75" customHeight="1"/>
-    <row r="161" ht="18.75" customHeight="1"/>
-    <row r="162" ht="18.75" customHeight="1"/>
-    <row r="163" ht="18.75" customHeight="1"/>
-    <row r="164" ht="18.75" customHeight="1"/>
-    <row r="165" ht="18.75" customHeight="1"/>
-    <row r="166" ht="18.75" customHeight="1"/>
-    <row r="167" ht="18.75" customHeight="1"/>
-    <row r="168" ht="18.75" customHeight="1"/>
-    <row r="169" ht="18.75" customHeight="1"/>
-    <row r="170" ht="18.75" customHeight="1"/>
-    <row r="171" ht="18.75" customHeight="1"/>
-    <row r="172" ht="18.75" customHeight="1"/>
-    <row r="173" ht="18.75" customHeight="1"/>
-    <row r="174" ht="18.75" customHeight="1"/>
-    <row r="175" ht="18.75" customHeight="1"/>
-    <row r="176" ht="18.75" customHeight="1"/>
-    <row r="177" ht="18.75" customHeight="1"/>
-    <row r="178" ht="18.75" customHeight="1"/>
-    <row r="179" ht="18.75" customHeight="1"/>
-    <row r="180" ht="18.75" customHeight="1"/>
-    <row r="181" ht="18.75" customHeight="1"/>
-    <row r="182" ht="18.75" customHeight="1"/>
-    <row r="183" ht="18.75" customHeight="1"/>
-    <row r="184" ht="18.75" customHeight="1"/>
-    <row r="185" ht="18.75" customHeight="1"/>
-    <row r="186" ht="18.75" customHeight="1"/>
-    <row r="187" ht="18.75" customHeight="1"/>
-    <row r="188" ht="18.75" customHeight="1"/>
-    <row r="189" ht="18.75" customHeight="1"/>
-    <row r="190" ht="18.75" customHeight="1"/>
-    <row r="191" ht="18.75" customHeight="1"/>
-    <row r="192" ht="18.75" customHeight="1"/>
-    <row r="193" ht="18.75" customHeight="1"/>
-    <row r="194" ht="18.75" customHeight="1"/>
-    <row r="195" ht="18.75" customHeight="1"/>
-    <row r="196" ht="18.75" customHeight="1"/>
-    <row r="197" ht="18.75" customHeight="1"/>
-    <row r="198" ht="18.75" customHeight="1"/>
-    <row r="199" ht="18.75" customHeight="1"/>
-    <row r="200" ht="18.75" customHeight="1"/>
-    <row r="201" ht="18.75" customHeight="1"/>
-    <row r="202" ht="18.75" customHeight="1"/>
-    <row r="203" ht="18.75" customHeight="1"/>
-    <row r="204" ht="18.75" customHeight="1"/>
-    <row r="205" ht="18.75" customHeight="1"/>
-    <row r="206" ht="18.75" customHeight="1"/>
-    <row r="207" ht="18.75" customHeight="1"/>
-    <row r="208" ht="18.75" customHeight="1"/>
-    <row r="209" ht="18.75" customHeight="1"/>
-    <row r="210" ht="18.75" customHeight="1"/>
-    <row r="211" ht="18.75" customHeight="1"/>
-    <row r="212" ht="18.75" customHeight="1"/>
-    <row r="213" ht="18.75" customHeight="1"/>
-    <row r="214" ht="18.75" customHeight="1"/>
-    <row r="215" ht="18.75" customHeight="1"/>
-    <row r="216" ht="18.75" customHeight="1"/>
-    <row r="217" ht="18.75" customHeight="1"/>
-    <row r="218" ht="18.75" customHeight="1"/>
-    <row r="219" ht="18.75" customHeight="1"/>
-    <row r="220" ht="18.75" customHeight="1"/>
-    <row r="221" ht="18.75" customHeight="1"/>
-    <row r="222" ht="18.75" customHeight="1"/>
-    <row r="223" ht="18.75" customHeight="1"/>
-    <row r="224" ht="18.75" customHeight="1"/>
-    <row r="225" ht="18.75" customHeight="1"/>
-    <row r="226" ht="18.75" customHeight="1"/>
-    <row r="227" ht="18.75" customHeight="1"/>
-    <row r="228" ht="18.75" customHeight="1"/>
-    <row r="229" ht="18.75" customHeight="1"/>
-    <row r="230" ht="18.75" customHeight="1"/>
-    <row r="231" ht="18.75" customHeight="1"/>
-    <row r="232" ht="18.75" customHeight="1"/>
-    <row r="233" ht="18.75" customHeight="1"/>
-    <row r="234" ht="18.75" customHeight="1"/>
-    <row r="235" ht="18.75" customHeight="1"/>
-    <row r="236" ht="18.75" customHeight="1"/>
-    <row r="237" ht="18.75" customHeight="1"/>
-    <row r="238" ht="18.75" customHeight="1"/>
-    <row r="239" ht="18.75" customHeight="1"/>
-    <row r="240" ht="18.75" customHeight="1"/>
-    <row r="241" ht="18.75" customHeight="1"/>
-    <row r="242" ht="18.75" customHeight="1"/>
-    <row r="243" ht="18.75" customHeight="1"/>
-    <row r="244" ht="18.75" customHeight="1"/>
-    <row r="245" ht="18.75" customHeight="1"/>
-    <row r="246" ht="18.75" customHeight="1"/>
-    <row r="247" ht="18.75" customHeight="1"/>
-    <row r="248" ht="18.75" customHeight="1"/>
-    <row r="249" ht="18.75" customHeight="1"/>
-    <row r="250" ht="18.75" customHeight="1"/>
-    <row r="251" ht="18.75" customHeight="1"/>
-    <row r="252" ht="18.75" customHeight="1"/>
-    <row r="253" ht="18.75" customHeight="1"/>
-    <row r="254" ht="18.75" customHeight="1"/>
-    <row r="255" ht="18.75" customHeight="1"/>
-    <row r="256" ht="18.75" customHeight="1"/>
-    <row r="257" ht="18.75" customHeight="1"/>
-    <row r="258" ht="18.75" customHeight="1"/>
-    <row r="259" ht="18.75" customHeight="1"/>
-    <row r="260" ht="18.75" customHeight="1"/>
-    <row r="261" ht="18.75" customHeight="1"/>
-    <row r="262" ht="18.75" customHeight="1"/>
-    <row r="263" ht="18.75" customHeight="1"/>
-    <row r="264" ht="18.75" customHeight="1"/>
-    <row r="265" ht="18.75" customHeight="1"/>
-    <row r="266" ht="18.75" customHeight="1"/>
-    <row r="267" ht="18.75" customHeight="1"/>
-    <row r="268" ht="18.75" customHeight="1"/>
-    <row r="269" ht="18.75" customHeight="1"/>
-    <row r="270" ht="18.75" customHeight="1"/>
-    <row r="271" ht="18.75" customHeight="1"/>
-    <row r="272" ht="18.75" customHeight="1"/>
-    <row r="273" ht="18.75" customHeight="1"/>
-    <row r="274" ht="18.75" customHeight="1"/>
-    <row r="275" ht="18.75" customHeight="1"/>
-    <row r="276" ht="18.75" customHeight="1"/>
-    <row r="277" ht="18.75" customHeight="1"/>
-    <row r="278" ht="18.75" customHeight="1"/>
-    <row r="279" ht="18.75" customHeight="1"/>
-    <row r="280" ht="18.75" customHeight="1"/>
-    <row r="281" ht="18.75" customHeight="1"/>
-    <row r="282" ht="18.75" customHeight="1"/>
-    <row r="283" ht="18.75" customHeight="1"/>
-    <row r="284" ht="18.75" customHeight="1"/>
-    <row r="285" ht="18.75" customHeight="1"/>
-    <row r="286" ht="18.75" customHeight="1"/>
-    <row r="287" ht="18.75" customHeight="1"/>
-    <row r="288" ht="18.75" customHeight="1"/>
-    <row r="289" ht="18.75" customHeight="1"/>
-    <row r="290" ht="18.75" customHeight="1"/>
-    <row r="291" ht="18.75" customHeight="1"/>
-    <row r="292" ht="18.75" customHeight="1"/>
-    <row r="293" ht="18.75" customHeight="1"/>
-    <row r="294" ht="18.75" customHeight="1"/>
-    <row r="295" ht="18.75" customHeight="1"/>
-    <row r="296" ht="18.75" customHeight="1"/>
-    <row r="297" ht="18.75" customHeight="1"/>
-    <row r="298" ht="18.75" customHeight="1"/>
-    <row r="299" ht="18.75" customHeight="1"/>
-    <row r="300" ht="18.75" customHeight="1"/>
-    <row r="301" ht="18.75" customHeight="1"/>
-    <row r="302" ht="18.75" customHeight="1"/>
-    <row r="303" ht="18.75" customHeight="1"/>
-    <row r="304" ht="18.75" customHeight="1"/>
-    <row r="305" ht="18.75" customHeight="1"/>
-    <row r="306" ht="18.75" customHeight="1"/>
-    <row r="307" ht="18.75" customHeight="1"/>
-    <row r="308" ht="18.75" customHeight="1"/>
-    <row r="309" ht="18.75" customHeight="1"/>
-    <row r="310" ht="18.75" customHeight="1"/>
-    <row r="311" ht="18.75" customHeight="1"/>
-    <row r="312" ht="18.75" customHeight="1"/>
-    <row r="313" ht="18.75" customHeight="1"/>
-    <row r="314" ht="18.75" customHeight="1"/>
-    <row r="315" ht="18.75" customHeight="1"/>
-    <row r="316" ht="18.75" customHeight="1"/>
-    <row r="317" ht="18.75" customHeight="1"/>
-    <row r="318" ht="18.75" customHeight="1"/>
-    <row r="319" ht="18.75" customHeight="1"/>
-    <row r="320" ht="18.75" customHeight="1"/>
-    <row r="321" ht="18.75" customHeight="1"/>
-    <row r="322" ht="18.75" customHeight="1"/>
-    <row r="323" ht="18.75" customHeight="1"/>
-    <row r="324" ht="18.75" customHeight="1"/>
-    <row r="325" ht="18.75" customHeight="1"/>
-    <row r="326" ht="18.75" customHeight="1"/>
-    <row r="327" ht="18.75" customHeight="1"/>
-    <row r="328" ht="18.75" customHeight="1"/>
-    <row r="329" ht="18.75" customHeight="1"/>
-    <row r="330" ht="18.75" customHeight="1"/>
-    <row r="331" ht="18.75" customHeight="1"/>
-    <row r="332" ht="18.75" customHeight="1"/>
-    <row r="333" ht="18.75" customHeight="1"/>
-    <row r="334" ht="18.75" customHeight="1"/>
-    <row r="335" ht="18.75" customHeight="1"/>
-    <row r="336" ht="18.75" customHeight="1"/>
-    <row r="337" ht="18.75" customHeight="1"/>
-    <row r="338" ht="18.75" customHeight="1"/>
-    <row r="339" ht="18.75" customHeight="1"/>
-    <row r="340" ht="18.75" customHeight="1"/>
-    <row r="341" ht="18.75" customHeight="1"/>
-    <row r="342" ht="18.75" customHeight="1"/>
-    <row r="343" ht="18.75" customHeight="1"/>
-    <row r="344" ht="18.75" customHeight="1"/>
-    <row r="345" ht="18.75" customHeight="1"/>
-    <row r="346" ht="18.75" customHeight="1"/>
-    <row r="347" ht="18.75" customHeight="1"/>
-    <row r="348" ht="18.75" customHeight="1"/>
-    <row r="349" ht="18.75" customHeight="1"/>
-    <row r="350" ht="18.75" customHeight="1"/>
-    <row r="351" ht="18.75" customHeight="1"/>
-    <row r="352" ht="18.75" customHeight="1"/>
-    <row r="353" ht="18.75" customHeight="1"/>
-    <row r="354" ht="18.75" customHeight="1"/>
-    <row r="355" ht="18.75" customHeight="1"/>
-    <row r="356" ht="18.75" customHeight="1"/>
-    <row r="357" ht="18.75" customHeight="1"/>
-    <row r="358" ht="18.75" customHeight="1"/>
-    <row r="359" ht="18.75" customHeight="1"/>
-    <row r="360" ht="18.75" customHeight="1"/>
-    <row r="361" ht="18.75" customHeight="1"/>
-    <row r="362" ht="18.75" customHeight="1"/>
-    <row r="363" ht="18.75" customHeight="1"/>
-    <row r="364" ht="18.75" customHeight="1"/>
-    <row r="365" ht="18.75" customHeight="1"/>
-    <row r="366" ht="18.75" customHeight="1"/>
-    <row r="367" ht="18.75" customHeight="1"/>
-    <row r="368" ht="18.75" customHeight="1"/>
-    <row r="369" ht="18.75" customHeight="1"/>
-    <row r="370" ht="18.75" customHeight="1"/>
-    <row r="371" ht="18.75" customHeight="1"/>
-    <row r="372" ht="18.75" customHeight="1"/>
-    <row r="373" ht="18.75" customHeight="1"/>
-    <row r="374" ht="18.75" customHeight="1"/>
-    <row r="375" ht="18.75" customHeight="1"/>
-    <row r="376" ht="18.75" customHeight="1"/>
-    <row r="377" ht="18.75" customHeight="1"/>
-    <row r="378" ht="18.75" customHeight="1"/>
-    <row r="379" ht="18.75" customHeight="1"/>
-    <row r="380" ht="18.75" customHeight="1"/>
-    <row r="381" ht="18.75" customHeight="1"/>
-    <row r="382" ht="18.75" customHeight="1"/>
-    <row r="383" ht="18.75" customHeight="1"/>
-    <row r="384" ht="18.75" customHeight="1"/>
-    <row r="385" ht="18.75" customHeight="1"/>
-    <row r="386" ht="18.75" customHeight="1"/>
-    <row r="387" ht="18.75" customHeight="1"/>
-    <row r="388" ht="18.75" customHeight="1"/>
-    <row r="389" ht="18.75" customHeight="1"/>
-    <row r="390" ht="18.75" customHeight="1"/>
-    <row r="391" ht="18.75" customHeight="1"/>
-    <row r="392" ht="18.75" customHeight="1"/>
-    <row r="393" ht="18.75" customHeight="1"/>
-    <row r="394" ht="18.75" customHeight="1"/>
-    <row r="395" ht="18.75" customHeight="1"/>
-    <row r="396" ht="18.75" customHeight="1"/>
-    <row r="397" ht="18.75" customHeight="1"/>
-    <row r="398" ht="18.75" customHeight="1"/>
-    <row r="399" ht="18.75" customHeight="1"/>
-    <row r="400" ht="18.75" customHeight="1"/>
-    <row r="401" ht="18.75" customHeight="1"/>
-    <row r="402" ht="18.75" customHeight="1"/>
-    <row r="403" ht="18.75" customHeight="1"/>
-    <row r="404" ht="18.75" customHeight="1"/>
-    <row r="405" ht="18.75" customHeight="1"/>
-    <row r="406" ht="18.75" customHeight="1"/>
-    <row r="407" ht="18.75" customHeight="1"/>
-    <row r="408" ht="18.75" customHeight="1"/>
-    <row r="409" ht="18.75" customHeight="1"/>
-    <row r="410" ht="18.75" customHeight="1"/>
-    <row r="411" ht="18.75" customHeight="1"/>
-    <row r="412" ht="18.75" customHeight="1"/>
-    <row r="413" ht="18.75" customHeight="1"/>
-    <row r="414" ht="18.75" customHeight="1"/>
-    <row r="415" ht="18.75" customHeight="1"/>
-    <row r="416" ht="18.75" customHeight="1"/>
-    <row r="417" ht="18.75" customHeight="1"/>
-    <row r="418" ht="18.75" customHeight="1"/>
-    <row r="419" ht="18.75" customHeight="1"/>
-    <row r="420" ht="18.75" customHeight="1"/>
-    <row r="421" ht="18.75" customHeight="1"/>
-    <row r="422" ht="18.75" customHeight="1"/>
-    <row r="423" ht="18.75" customHeight="1"/>
-    <row r="424" ht="18.75" customHeight="1"/>
-    <row r="425" ht="18.75" customHeight="1"/>
-    <row r="426" ht="18.75" customHeight="1"/>
-    <row r="427" ht="18.75" customHeight="1"/>
-    <row r="428" ht="18.75" customHeight="1"/>
-    <row r="429" ht="18.75" customHeight="1"/>
-    <row r="430" ht="18.75" customHeight="1"/>
-    <row r="431" ht="18.75" customHeight="1"/>
-    <row r="432" ht="18.75" customHeight="1"/>
-    <row r="433" ht="18.75" customHeight="1"/>
-    <row r="434" ht="18.75" customHeight="1"/>
-    <row r="435" ht="18.75" customHeight="1"/>
-    <row r="436" ht="18.75" customHeight="1"/>
-    <row r="437" ht="18.75" customHeight="1"/>
-    <row r="438" ht="18.75" customHeight="1"/>
-    <row r="439" ht="18.75" customHeight="1"/>
-    <row r="440" ht="18.75" customHeight="1"/>
-    <row r="441" ht="18.75" customHeight="1"/>
-    <row r="442" ht="18.75" customHeight="1"/>
-    <row r="443" ht="18.75" customHeight="1"/>
-    <row r="444" ht="18.75" customHeight="1"/>
-    <row r="445" ht="18.75" customHeight="1"/>
-    <row r="446" ht="18.75" customHeight="1"/>
-    <row r="447" ht="18.75" customHeight="1"/>
-    <row r="448" ht="18.75" customHeight="1"/>
-    <row r="449" ht="18.75" customHeight="1"/>
-    <row r="450" ht="18.75" customHeight="1"/>
-    <row r="451" ht="18.75" customHeight="1"/>
-    <row r="452" ht="18.75" customHeight="1"/>
-    <row r="453" ht="18.75" customHeight="1"/>
-    <row r="454" ht="18.75" customHeight="1"/>
-    <row r="455" ht="18.75" customHeight="1"/>
-    <row r="456" ht="18.75" customHeight="1"/>
-    <row r="457" ht="18.75" customHeight="1"/>
-    <row r="458" ht="18.75" customHeight="1"/>
-    <row r="459" ht="18.75" customHeight="1"/>
-    <row r="460" ht="18.75" customHeight="1"/>
-    <row r="461" ht="18.75" customHeight="1"/>
-    <row r="462" ht="18.75" customHeight="1"/>
-    <row r="463" ht="18.75" customHeight="1"/>
-    <row r="464" ht="18.75" customHeight="1"/>
-    <row r="465" ht="18.75" customHeight="1"/>
-    <row r="466" ht="18.75" customHeight="1"/>
-    <row r="467" ht="18.75" customHeight="1"/>
-    <row r="468" ht="18.75" customHeight="1"/>
-    <row r="469" ht="18.75" customHeight="1"/>
-    <row r="470" ht="18.75" customHeight="1"/>
-    <row r="471" ht="18.75" customHeight="1"/>
-    <row r="472" ht="18.75" customHeight="1"/>
-    <row r="473" ht="18.75" customHeight="1"/>
-    <row r="474" ht="18.75" customHeight="1"/>
-    <row r="475" ht="18.75" customHeight="1"/>
-    <row r="476" ht="18.75" customHeight="1"/>
-    <row r="477" ht="18.75" customHeight="1"/>
-    <row r="478" ht="18.75" customHeight="1"/>
-    <row r="479" ht="18.75" customHeight="1"/>
-    <row r="480" ht="18.75" customHeight="1"/>
-    <row r="481" ht="18.75" customHeight="1"/>
-    <row r="482" ht="18.75" customHeight="1"/>
-    <row r="483" ht="18.75" customHeight="1"/>
-    <row r="484" ht="18.75" customHeight="1"/>
-    <row r="485" ht="18.75" customHeight="1"/>
-    <row r="486" ht="18.75" customHeight="1"/>
-    <row r="487" ht="18.75" customHeight="1"/>
-    <row r="488" ht="18.75" customHeight="1"/>
-    <row r="489" ht="18.75" customHeight="1"/>
-    <row r="490" ht="18.75" customHeight="1"/>
-    <row r="491" ht="18.75" customHeight="1"/>
-    <row r="492" ht="18.75" customHeight="1"/>
-    <row r="493" ht="18.75" customHeight="1"/>
-    <row r="494" ht="18.75" customHeight="1"/>
-    <row r="495" ht="18.75" customHeight="1"/>
-    <row r="496" ht="18.75" customHeight="1"/>
-    <row r="497" ht="18.75" customHeight="1"/>
-    <row r="498" ht="18.75" customHeight="1"/>
-    <row r="499" ht="18.75" customHeight="1"/>
-    <row r="500" ht="18.75" customHeight="1"/>
-    <row r="501" ht="18.75" customHeight="1"/>
-    <row r="502" ht="18.75" customHeight="1"/>
-    <row r="503" ht="18.75" customHeight="1"/>
-    <row r="504" ht="18.75" customHeight="1"/>
-    <row r="505" ht="18.75" customHeight="1"/>
-    <row r="506" ht="18.75" customHeight="1"/>
-    <row r="507" ht="18.75" customHeight="1"/>
-    <row r="508" ht="18.75" customHeight="1"/>
-    <row r="509" ht="18.75" customHeight="1"/>
-    <row r="510" ht="18.75" customHeight="1"/>
-    <row r="511" ht="18.75" customHeight="1"/>
-    <row r="512" ht="18.75" customHeight="1"/>
-    <row r="513" ht="18.75" customHeight="1"/>
-    <row r="514" ht="18.75" customHeight="1"/>
-    <row r="515" ht="18.75" customHeight="1"/>
-    <row r="516" ht="18.75" customHeight="1"/>
-    <row r="517" ht="18.75" customHeight="1"/>
-    <row r="518" ht="18.75" customHeight="1"/>
-    <row r="519" ht="18.75" customHeight="1"/>
-    <row r="520" ht="18.75" customHeight="1"/>
-    <row r="521" ht="18.75" customHeight="1"/>
-    <row r="522" ht="18.75" customHeight="1"/>
-    <row r="523" ht="18.75" customHeight="1"/>
-    <row r="524" ht="18.75" customHeight="1"/>
-    <row r="525" ht="18.75" customHeight="1"/>
-    <row r="526" ht="18.75" customHeight="1"/>
-    <row r="527" ht="18.75" customHeight="1"/>
-    <row r="528" ht="18.75" customHeight="1"/>
-    <row r="529" ht="18.75" customHeight="1"/>
-    <row r="530" ht="18.75" customHeight="1"/>
-    <row r="531" ht="18.75" customHeight="1"/>
-    <row r="532" ht="18.75" customHeight="1"/>
-    <row r="533" ht="18.75" customHeight="1"/>
-    <row r="534" ht="18.75" customHeight="1"/>
-    <row r="535" ht="18.75" customHeight="1"/>
-    <row r="536" ht="18.75" customHeight="1"/>
-    <row r="537" ht="18.75" customHeight="1"/>
-    <row r="538" ht="18.75" customHeight="1"/>
-    <row r="539" ht="18.75" customHeight="1"/>
-    <row r="540" ht="18.75" customHeight="1"/>
-    <row r="541" ht="18.75" customHeight="1"/>
-    <row r="542" ht="18.75" customHeight="1"/>
-    <row r="543" ht="18.75" customHeight="1"/>
-    <row r="544" ht="18.75" customHeight="1"/>
-    <row r="545" ht="18.75" customHeight="1"/>
-    <row r="546" ht="18.75" customHeight="1"/>
-    <row r="547" ht="18.75" customHeight="1"/>
-    <row r="548" ht="18.75" customHeight="1"/>
-    <row r="549" ht="18.75" customHeight="1"/>
-    <row r="550" ht="18.75" customHeight="1"/>
-    <row r="551" ht="18.75" customHeight="1"/>
-    <row r="552" ht="18.75" customHeight="1"/>
-    <row r="553" ht="18.75" customHeight="1"/>
-    <row r="554" ht="18.75" customHeight="1"/>
-    <row r="555" ht="18.75" customHeight="1"/>
-    <row r="556" ht="18.75" customHeight="1"/>
-    <row r="557" ht="18.75" customHeight="1"/>
-    <row r="558" ht="18.75" customHeight="1"/>
-    <row r="559" ht="18.75" customHeight="1"/>
-    <row r="560" ht="18.75" customHeight="1"/>
-    <row r="561" ht="18.75" customHeight="1"/>
-    <row r="562" ht="18.75" customHeight="1"/>
-    <row r="563" ht="18.75" customHeight="1"/>
-    <row r="564" ht="18.75" customHeight="1"/>
-    <row r="565" ht="18.75" customHeight="1"/>
-    <row r="566" ht="18.75" customHeight="1"/>
-    <row r="567" ht="18.75" customHeight="1"/>
-    <row r="568" ht="18.75" customHeight="1"/>
-    <row r="569" ht="18.75" customHeight="1"/>
-    <row r="570" ht="18.75" customHeight="1"/>
-    <row r="571" ht="18.75" customHeight="1"/>
-    <row r="572" ht="18.75" customHeight="1"/>
-    <row r="573" ht="18.75" customHeight="1"/>
-    <row r="574" ht="18.75" customHeight="1"/>
-    <row r="575" ht="18.75" customHeight="1"/>
-    <row r="576" ht="18.75" customHeight="1"/>
-    <row r="577" ht="18.75" customHeight="1"/>
-    <row r="578" ht="18.75" customHeight="1"/>
-    <row r="579" ht="18.75" customHeight="1"/>
-    <row r="580" ht="18.75" customHeight="1"/>
-    <row r="581" ht="18.75" customHeight="1"/>
-    <row r="582" ht="18.75" customHeight="1"/>
-    <row r="583" ht="18.75" customHeight="1"/>
-    <row r="584" ht="18.75" customHeight="1"/>
-    <row r="585" ht="18.75" customHeight="1"/>
-    <row r="586" ht="18.75" customHeight="1"/>
-    <row r="587" ht="18.75" customHeight="1"/>
-    <row r="588" ht="18.75" customHeight="1"/>
-    <row r="589" ht="18.75" customHeight="1"/>
-    <row r="590" ht="18.75" customHeight="1"/>
-    <row r="591" ht="18.75" customHeight="1"/>
-    <row r="592" ht="18.75" customHeight="1"/>
-    <row r="593" ht="18.75" customHeight="1"/>
-    <row r="594" ht="18.75" customHeight="1"/>
-    <row r="595" ht="18.75" customHeight="1"/>
-    <row r="596" ht="18.75" customHeight="1"/>
-    <row r="597" ht="18.75" customHeight="1"/>
-    <row r="598" ht="18.75" customHeight="1"/>
-    <row r="599" ht="18.75" customHeight="1"/>
-    <row r="600" ht="18.75" customHeight="1"/>
-    <row r="601" ht="18.75" customHeight="1"/>
-    <row r="602" ht="18.75" customHeight="1"/>
-    <row r="603" ht="18.75" customHeight="1"/>
-    <row r="604" ht="18.75" customHeight="1"/>
-    <row r="605" ht="18.75" customHeight="1"/>
-    <row r="606" ht="18.75" customHeight="1"/>
-    <row r="607" ht="18.75" customHeight="1"/>
-    <row r="608" ht="18.75" customHeight="1"/>
-    <row r="609" ht="18.75" customHeight="1"/>
-    <row r="610" ht="18.75" customHeight="1"/>
-    <row r="611" ht="18.75" customHeight="1"/>
-    <row r="612" ht="18.75" customHeight="1"/>
-    <row r="613" ht="18.75" customHeight="1"/>
-    <row r="614" ht="18.75" customHeight="1"/>
-    <row r="615" ht="18.75" customHeight="1"/>
-    <row r="616" ht="18.75" customHeight="1"/>
-    <row r="617" ht="18.75" customHeight="1"/>
-    <row r="618" ht="18.75" customHeight="1"/>
-    <row r="619" ht="18.75" customHeight="1"/>
-    <row r="620" ht="18.75" customHeight="1"/>
-    <row r="621" ht="18.75" customHeight="1"/>
-    <row r="622" ht="18.75" customHeight="1"/>
-    <row r="623" ht="18.75" customHeight="1"/>
-    <row r="624" ht="18.75" customHeight="1"/>
-    <row r="625" ht="18.75" customHeight="1"/>
-    <row r="626" ht="18.75" customHeight="1"/>
-    <row r="627" ht="18.75" customHeight="1"/>
-    <row r="628" ht="18.75" customHeight="1"/>
-    <row r="629" ht="18.75" customHeight="1"/>
-    <row r="630" ht="18.75" customHeight="1"/>
-    <row r="631" ht="18.75" customHeight="1"/>
-    <row r="632" ht="18.75" customHeight="1"/>
-    <row r="633" ht="18.75" customHeight="1"/>
-    <row r="634" ht="18.75" customHeight="1"/>
-    <row r="635" ht="18.75" customHeight="1"/>
-    <row r="636" ht="18.75" customHeight="1"/>
-    <row r="637" ht="18.75" customHeight="1"/>
-    <row r="638" ht="18.75" customHeight="1"/>
-    <row r="639" ht="18.75" customHeight="1"/>
-    <row r="640" ht="18.75" customHeight="1"/>
-    <row r="641" ht="18.75" customHeight="1"/>
-    <row r="642" ht="18.75" customHeight="1"/>
-    <row r="643" ht="18.75" customHeight="1"/>
-    <row r="644" ht="18.75" customHeight="1"/>
-    <row r="645" ht="18.75" customHeight="1"/>
-    <row r="646" ht="18.75" customHeight="1"/>
-    <row r="647" ht="18.75" customHeight="1"/>
-    <row r="648" ht="18.75" customHeight="1"/>
-    <row r="649" ht="18.75" customHeight="1"/>
-    <row r="650" ht="18.75" customHeight="1"/>
-    <row r="651" ht="18.75" customHeight="1"/>
-    <row r="652" ht="18.75" customHeight="1"/>
-    <row r="653" ht="18.75" customHeight="1"/>
-    <row r="654" ht="18.75" customHeight="1"/>
-    <row r="655" ht="18.75" customHeight="1"/>
-    <row r="656" ht="18.75" customHeight="1"/>
-    <row r="657" ht="18.75" customHeight="1"/>
-    <row r="658" ht="18.75" customHeight="1"/>
-    <row r="659" ht="18.75" customHeight="1"/>
-    <row r="660" ht="18.75" customHeight="1"/>
-    <row r="661" ht="18.75" customHeight="1"/>
-    <row r="662" ht="18.75" customHeight="1"/>
-    <row r="663" ht="18.75" customHeight="1"/>
-    <row r="664" ht="18.75" customHeight="1"/>
-    <row r="665" ht="18.75" customHeight="1"/>
-    <row r="666" ht="18.75" customHeight="1"/>
-    <row r="667" ht="18.75" customHeight="1"/>
-    <row r="668" ht="18.75" customHeight="1"/>
-    <row r="669" ht="18.75" customHeight="1"/>
-    <row r="670" ht="18.75" customHeight="1"/>
-    <row r="671" ht="18.75" customHeight="1"/>
-    <row r="672" ht="18.75" customHeight="1"/>
-    <row r="673" ht="18.75" customHeight="1"/>
-    <row r="674" ht="18.75" customHeight="1"/>
-    <row r="675" ht="18.75" customHeight="1"/>
-    <row r="676" ht="18.75" customHeight="1"/>
-    <row r="677" ht="18.75" customHeight="1"/>
-    <row r="678" ht="18.75" customHeight="1"/>
-    <row r="679" ht="18.75" customHeight="1"/>
-    <row r="680" ht="18.75" customHeight="1"/>
-    <row r="681" ht="18.75" customHeight="1"/>
-    <row r="682" ht="18.75" customHeight="1"/>
-    <row r="683" ht="18.75" customHeight="1"/>
-    <row r="684" ht="18.75" customHeight="1"/>
-    <row r="685" ht="18.75" customHeight="1"/>
-    <row r="686" ht="18.75" customHeight="1"/>
-    <row r="687" ht="18.75" customHeight="1"/>
-    <row r="688" ht="18.75" customHeight="1"/>
-    <row r="689" ht="18.75" customHeight="1"/>
-    <row r="690" ht="18.75" customHeight="1"/>
-    <row r="691" ht="18.75" customHeight="1"/>
-    <row r="692" ht="18.75" customHeight="1"/>
-    <row r="693" ht="18.75" customHeight="1"/>
-    <row r="694" ht="18.75" customHeight="1"/>
-    <row r="695" ht="18.75" customHeight="1"/>
-    <row r="696" ht="18.75" customHeight="1"/>
-    <row r="697" ht="18.75" customHeight="1"/>
-    <row r="698" ht="18.75" customHeight="1"/>
-    <row r="699" ht="18.75" customHeight="1"/>
-    <row r="700" ht="18.75" customHeight="1"/>
-    <row r="701" ht="18.75" customHeight="1"/>
-    <row r="702" ht="18.75" customHeight="1"/>
-    <row r="703" ht="18.75" customHeight="1"/>
-    <row r="704" ht="18.75" customHeight="1"/>
-    <row r="705" ht="18.75" customHeight="1"/>
-    <row r="706" ht="18.75" customHeight="1"/>
-    <row r="707" ht="18.75" customHeight="1"/>
-    <row r="708" ht="18.75" customHeight="1"/>
-    <row r="709" ht="18.75" customHeight="1"/>
-    <row r="710" ht="18.75" customHeight="1"/>
-    <row r="711" ht="18.75" customHeight="1"/>
-    <row r="712" ht="18.75" customHeight="1"/>
-    <row r="713" ht="18.75" customHeight="1"/>
-    <row r="714" ht="18.75" customHeight="1"/>
-    <row r="715" ht="18.75" customHeight="1"/>
-    <row r="716" ht="18.75" customHeight="1"/>
-    <row r="717" ht="18.75" customHeight="1"/>
-    <row r="718" ht="18.75" customHeight="1"/>
-    <row r="719" ht="18.75" customHeight="1"/>
-    <row r="720" ht="18.75" customHeight="1"/>
-    <row r="721" ht="18.75" customHeight="1"/>
-    <row r="722" ht="18.75" customHeight="1"/>
-    <row r="723" ht="18.75" customHeight="1"/>
-    <row r="724" ht="18.75" customHeight="1"/>
-    <row r="725" ht="18.75" customHeight="1"/>
-    <row r="726" ht="18.75" customHeight="1"/>
-    <row r="727" ht="18.75" customHeight="1"/>
-    <row r="728" ht="18.75" customHeight="1"/>
-    <row r="729" ht="18.75" customHeight="1"/>
-    <row r="730" ht="18.75" customHeight="1"/>
-    <row r="731" ht="18.75" customHeight="1"/>
-    <row r="732" ht="18.75" customHeight="1"/>
-    <row r="733" ht="18.75" customHeight="1"/>
-    <row r="734" ht="18.75" customHeight="1"/>
-    <row r="735" ht="18.75" customHeight="1"/>
-    <row r="736" ht="18.75" customHeight="1"/>
-    <row r="737" ht="18.75" customHeight="1"/>
-    <row r="738" ht="18.75" customHeight="1"/>
-    <row r="739" ht="18.75" customHeight="1"/>
-    <row r="740" ht="18.75" customHeight="1"/>
-    <row r="741" ht="18.75" customHeight="1"/>
-    <row r="742" ht="18.75" customHeight="1"/>
-    <row r="743" ht="18.75" customHeight="1"/>
-    <row r="744" ht="18.75" customHeight="1"/>
-    <row r="745" ht="18.75" customHeight="1"/>
-    <row r="746" ht="18.75" customHeight="1"/>
-    <row r="747" ht="18.75" customHeight="1"/>
-    <row r="748" ht="18.75" customHeight="1"/>
-    <row r="749" ht="18.75" customHeight="1"/>
-    <row r="750" ht="18.75" customHeight="1"/>
-    <row r="751" ht="18.75" customHeight="1"/>
-    <row r="752" ht="18.75" customHeight="1"/>
-    <row r="753" ht="18.75" customHeight="1"/>
-    <row r="754" ht="18.75" customHeight="1"/>
-    <row r="755" ht="18.75" customHeight="1"/>
-    <row r="756" ht="18.75" customHeight="1"/>
-    <row r="757" ht="18.75" customHeight="1"/>
-    <row r="758" ht="18.75" customHeight="1"/>
-    <row r="759" ht="18.75" customHeight="1"/>
-    <row r="760" ht="18.75" customHeight="1"/>
-    <row r="761" ht="18.75" customHeight="1"/>
-    <row r="762" ht="18.75" customHeight="1"/>
-    <row r="763" ht="18.75" customHeight="1"/>
-    <row r="764" ht="18.75" customHeight="1"/>
-    <row r="765" ht="18.75" customHeight="1"/>
-    <row r="766" ht="18.75" customHeight="1"/>
-    <row r="767" ht="18.75" customHeight="1"/>
-    <row r="768" ht="18.75" customHeight="1"/>
-    <row r="769" ht="18.75" customHeight="1"/>
-    <row r="770" ht="18.75" customHeight="1"/>
-    <row r="771" ht="18.75" customHeight="1"/>
-    <row r="772" ht="18.75" customHeight="1"/>
-    <row r="773" ht="18.75" customHeight="1"/>
-    <row r="774" ht="18.75" customHeight="1"/>
-    <row r="775" ht="18.75" customHeight="1"/>
-    <row r="776" ht="18.75" customHeight="1"/>
-    <row r="777" ht="18.75" customHeight="1"/>
-    <row r="778" ht="18.75" customHeight="1"/>
-    <row r="779" ht="18.75" customHeight="1"/>
-    <row r="780" ht="18.75" customHeight="1"/>
-    <row r="781" ht="18.75" customHeight="1"/>
-    <row r="782" ht="18.75" customHeight="1"/>
-    <row r="783" ht="18.75" customHeight="1"/>
-    <row r="784" ht="18.75" customHeight="1"/>
-    <row r="785" ht="18.75" customHeight="1"/>
-    <row r="786" ht="18.75" customHeight="1"/>
-    <row r="787" ht="18.75" customHeight="1"/>
-    <row r="788" ht="18.75" customHeight="1"/>
-    <row r="789" ht="18.75" customHeight="1"/>
-    <row r="790" ht="18.75" customHeight="1"/>
-    <row r="791" ht="18.75" customHeight="1"/>
-    <row r="792" ht="18.75" customHeight="1"/>
-    <row r="793" ht="18.75" customHeight="1"/>
-    <row r="794" ht="18.75" customHeight="1"/>
-    <row r="795" ht="18.75" customHeight="1"/>
-    <row r="796" ht="18.75" customHeight="1"/>
-    <row r="797" ht="18.75" customHeight="1"/>
-    <row r="798" ht="18.75" customHeight="1"/>
-    <row r="799" ht="18.75" customHeight="1"/>
-    <row r="800" ht="18.75" customHeight="1"/>
-    <row r="801" ht="18.75" customHeight="1"/>
-    <row r="802" ht="18.75" customHeight="1"/>
-    <row r="803" ht="18.75" customHeight="1"/>
-    <row r="804" ht="18.75" customHeight="1"/>
-    <row r="805" ht="18.75" customHeight="1"/>
-    <row r="806" ht="18.75" customHeight="1"/>
-    <row r="807" ht="18.75" customHeight="1"/>
-    <row r="808" ht="18.75" customHeight="1"/>
-    <row r="809" ht="18.75" customHeight="1"/>
-    <row r="810" ht="18.75" customHeight="1"/>
-    <row r="811" ht="18.75" customHeight="1"/>
-    <row r="812" ht="18.75" customHeight="1"/>
-    <row r="813" ht="18.75" customHeight="1"/>
-    <row r="814" ht="18.75" customHeight="1"/>
-    <row r="815" ht="18.75" customHeight="1"/>
-    <row r="816" ht="18.75" customHeight="1"/>
-    <row r="817" ht="18.75" customHeight="1"/>
-    <row r="818" ht="18.75" customHeight="1"/>
-    <row r="819" ht="18.75" customHeight="1"/>
-    <row r="820" ht="18.75" customHeight="1"/>
-    <row r="821" ht="18.75" customHeight="1"/>
-    <row r="822" ht="18.75" customHeight="1"/>
-    <row r="823" ht="18.75" customHeight="1"/>
-    <row r="824" ht="18.75" customHeight="1"/>
-    <row r="825" ht="18.75" customHeight="1"/>
-    <row r="826" ht="18.75" customHeight="1"/>
-    <row r="827" ht="18.75" customHeight="1"/>
-    <row r="828" ht="18.75" customHeight="1"/>
-    <row r="829" ht="18.75" customHeight="1"/>
-    <row r="830" ht="18.75" customHeight="1"/>
-    <row r="831" ht="18.75" customHeight="1"/>
-    <row r="832" ht="18.75" customHeight="1"/>
-    <row r="833" ht="18.75" customHeight="1"/>
-    <row r="834" ht="18.75" customHeight="1"/>
-    <row r="835" ht="18.75" customHeight="1"/>
-    <row r="836" ht="18.75" customHeight="1"/>
-    <row r="837" ht="18.75" customHeight="1"/>
-    <row r="838" ht="18.75" customHeight="1"/>
-    <row r="839" ht="18.75" customHeight="1"/>
-    <row r="840" ht="18.75" customHeight="1"/>
-    <row r="841" ht="18.75" customHeight="1"/>
-    <row r="842" ht="18.75" customHeight="1"/>
-    <row r="843" ht="18.75" customHeight="1"/>
-    <row r="844" ht="18.75" customHeight="1"/>
-    <row r="845" ht="18.75" customHeight="1"/>
-    <row r="846" ht="18.75" customHeight="1"/>
-    <row r="847" ht="18.75" customHeight="1"/>
-    <row r="848" ht="18.75" customHeight="1"/>
-    <row r="849" ht="18.75" customHeight="1"/>
-    <row r="850" ht="18.75" customHeight="1"/>
-    <row r="851" ht="18.75" customHeight="1"/>
-    <row r="852" ht="18.75" customHeight="1"/>
-    <row r="853" ht="18.75" customHeight="1"/>
-    <row r="854" ht="18.75" customHeight="1"/>
-    <row r="855" ht="18.75" customHeight="1"/>
-    <row r="856" ht="18.75" customHeight="1"/>
-    <row r="857" ht="18.75" customHeight="1"/>
-    <row r="858" ht="18.75" customHeight="1"/>
-    <row r="859" ht="18.75" customHeight="1"/>
-    <row r="860" ht="18.75" customHeight="1"/>
-    <row r="861" ht="18.75" customHeight="1"/>
-    <row r="862" ht="18.75" customHeight="1"/>
-    <row r="863" ht="18.75" customHeight="1"/>
-    <row r="864" ht="18.75" customHeight="1"/>
-    <row r="865" ht="18.75" customHeight="1"/>
-    <row r="866" ht="18.75" customHeight="1"/>
-    <row r="867" ht="18.75" customHeight="1"/>
-    <row r="868" ht="18.75" customHeight="1"/>
-    <row r="869" ht="18.75" customHeight="1"/>
-    <row r="870" ht="18.75" customHeight="1"/>
-    <row r="871" ht="18.75" customHeight="1"/>
-    <row r="872" ht="18.75" customHeight="1"/>
-    <row r="873" ht="18.75" customHeight="1"/>
-    <row r="874" ht="18.75" customHeight="1"/>
-    <row r="875" ht="18.75" customHeight="1"/>
-    <row r="876" ht="18.75" customHeight="1"/>
-    <row r="877" ht="18.75" customHeight="1"/>
-    <row r="878" ht="18.75" customHeight="1"/>
-    <row r="879" ht="18.75" customHeight="1"/>
-    <row r="880" ht="18.75" customHeight="1"/>
-    <row r="881" ht="18.75" customHeight="1"/>
-    <row r="882" ht="18.75" customHeight="1"/>
-    <row r="883" ht="18.75" customHeight="1"/>
-    <row r="884" ht="18.75" customHeight="1"/>
-    <row r="885" ht="18.75" customHeight="1"/>
-    <row r="886" ht="18.75" customHeight="1"/>
-    <row r="887" ht="18.75" customHeight="1"/>
-    <row r="888" ht="18.75" customHeight="1"/>
-    <row r="889" ht="18.75" customHeight="1"/>
-    <row r="890" ht="18.75" customHeight="1"/>
-    <row r="891" ht="18.75" customHeight="1"/>
-    <row r="892" ht="18.75" customHeight="1"/>
-    <row r="893" ht="18.75" customHeight="1"/>
-    <row r="894" ht="18.75" customHeight="1"/>
-    <row r="895" ht="18.75" customHeight="1"/>
-    <row r="896" ht="18.75" customHeight="1"/>
-    <row r="897" ht="18.75" customHeight="1"/>
-    <row r="898" ht="18.75" customHeight="1"/>
-    <row r="899" ht="18.75" customHeight="1"/>
-    <row r="900" ht="18.75" customHeight="1"/>
-    <row r="901" ht="18.75" customHeight="1"/>
-    <row r="902" ht="18.75" customHeight="1"/>
-    <row r="903" ht="18.75" customHeight="1"/>
-    <row r="904" ht="18.75" customHeight="1"/>
-    <row r="905" ht="18.75" customHeight="1"/>
-    <row r="906" ht="18.75" customHeight="1"/>
-    <row r="907" ht="18.75" customHeight="1"/>
-    <row r="908" ht="18.75" customHeight="1"/>
-    <row r="909" ht="18.75" customHeight="1"/>
-    <row r="910" ht="18.75" customHeight="1"/>
-    <row r="911" ht="18.75" customHeight="1"/>
-    <row r="912" ht="18.75" customHeight="1"/>
-    <row r="913" ht="18.75" customHeight="1"/>
-    <row r="914" ht="18.75" customHeight="1"/>
-    <row r="915" ht="18.75" customHeight="1"/>
-    <row r="916" ht="18.75" customHeight="1"/>
-    <row r="917" ht="18.75" customHeight="1"/>
-    <row r="918" ht="18.75" customHeight="1"/>
-    <row r="919" ht="18.75" customHeight="1"/>
-    <row r="920" ht="18.75" customHeight="1"/>
-    <row r="921" ht="18.75" customHeight="1"/>
-    <row r="922" ht="18.75" customHeight="1"/>
-    <row r="923" ht="18.75" customHeight="1"/>
-    <row r="924" ht="18.75" customHeight="1"/>
-    <row r="925" ht="18.75" customHeight="1"/>
-    <row r="926" ht="18.75" customHeight="1"/>
-    <row r="927" ht="18.75" customHeight="1"/>
-    <row r="928" ht="18.75" customHeight="1"/>
-    <row r="929" ht="18.75" customHeight="1"/>
-    <row r="930" ht="18.75" customHeight="1"/>
-    <row r="931" ht="18.75" customHeight="1"/>
-    <row r="932" ht="18.75" customHeight="1"/>
-    <row r="933" ht="18.75" customHeight="1"/>
-    <row r="934" ht="18.75" customHeight="1"/>
-    <row r="935" ht="18.75" customHeight="1"/>
-    <row r="936" ht="18.75" customHeight="1"/>
-    <row r="937" ht="18.75" customHeight="1"/>
-    <row r="938" ht="18.75" customHeight="1"/>
-    <row r="939" ht="18.75" customHeight="1"/>
-    <row r="940" ht="18.75" customHeight="1"/>
-    <row r="941" ht="18.75" customHeight="1"/>
-    <row r="942" ht="18.75" customHeight="1"/>
-    <row r="943" ht="18.75" customHeight="1"/>
-    <row r="944" ht="18.75" customHeight="1"/>
-    <row r="945" ht="18.75" customHeight="1"/>
-    <row r="946" ht="18.75" customHeight="1"/>
-    <row r="947" ht="18.75" customHeight="1"/>
-    <row r="948" ht="18.75" customHeight="1"/>
-    <row r="949" ht="18.75" customHeight="1"/>
-    <row r="950" ht="18.75" customHeight="1"/>
-    <row r="951" ht="18.75" customHeight="1"/>
-    <row r="952" ht="18.75" customHeight="1"/>
-    <row r="953" ht="18.75" customHeight="1"/>
-    <row r="954" ht="18.75" customHeight="1"/>
-    <row r="955" ht="18.75" customHeight="1"/>
-    <row r="956" ht="18.75" customHeight="1"/>
-    <row r="957" ht="18.75" customHeight="1"/>
-    <row r="958" ht="18.75" customHeight="1"/>
-    <row r="959" ht="18.75" customHeight="1"/>
-    <row r="960" ht="18.75" customHeight="1"/>
-    <row r="961" ht="18.75" customHeight="1"/>
-    <row r="962" ht="18.75" customHeight="1"/>
-    <row r="963" ht="18.75" customHeight="1"/>
-    <row r="964" ht="18.75" customHeight="1"/>
-    <row r="965" ht="18.75" customHeight="1"/>
-    <row r="966" ht="18.75" customHeight="1"/>
-    <row r="967" ht="18.75" customHeight="1"/>
-    <row r="968" ht="18.75" customHeight="1"/>
-    <row r="969" ht="18.75" customHeight="1"/>
-    <row r="970" ht="18.75" customHeight="1"/>
-    <row r="971" ht="18.75" customHeight="1"/>
-    <row r="972" ht="18.75" customHeight="1"/>
-    <row r="973" ht="18.75" customHeight="1"/>
-    <row r="974" ht="18.75" customHeight="1"/>
-    <row r="975" ht="18.75" customHeight="1"/>
-    <row r="976" ht="18.75" customHeight="1"/>
-    <row r="977" ht="18.75" customHeight="1"/>
-    <row r="978" ht="18.75" customHeight="1"/>
-    <row r="979" ht="18.75" customHeight="1"/>
-    <row r="980" ht="18.75" customHeight="1"/>
-    <row r="981" ht="18.75" customHeight="1"/>
-    <row r="982" ht="18.75" customHeight="1"/>
-    <row r="983" ht="18.75" customHeight="1"/>
-    <row r="984" ht="18.75" customHeight="1"/>
-    <row r="985" ht="18.75" customHeight="1"/>
-    <row r="986" ht="18.75" customHeight="1"/>
-    <row r="987" ht="18.75" customHeight="1"/>
-    <row r="988" ht="18.75" customHeight="1"/>
-    <row r="989" ht="18.75" customHeight="1"/>
-    <row r="990" ht="18.75" customHeight="1"/>
-    <row r="991" ht="18.75" customHeight="1"/>
-    <row r="992" ht="18.75" customHeight="1"/>
-    <row r="993" ht="18.75" customHeight="1"/>
-    <row r="994" ht="18.75" customHeight="1"/>
-    <row r="995" ht="18.75" customHeight="1"/>
-    <row r="996" ht="18.75" customHeight="1"/>
-    <row r="997" ht="18.75" customHeight="1"/>
-    <row r="998" ht="18.75" customHeight="1"/>
-    <row r="999" ht="18.75" customHeight="1"/>
-    <row r="1000" ht="18.75" customHeight="1"/>
-  </sheetData>
-  <phoneticPr fontId="3"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B1:C1000"/>
@@ -16509,102 +14092,102 @@
     <row r="4" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4" t="s">
+      <c r="B13" s="3"/>
+      <c r="C13" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="25" spans="2:3" ht="18.75" customHeight="1"/>
@@ -17608,120 +15191,120 @@
     <row r="4" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="19" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C27" s="4"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="29" spans="2:3" ht="18.75" customHeight="1"/>
@@ -18721,130 +16304,130 @@
     <row r="4" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="4"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="4"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="4"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="31" spans="2:3" ht="18.75" customHeight="1"/>
@@ -19842,225 +17425,225 @@
     <row r="4" spans="1:3" ht="18.75" customHeight="1"/>
     <row r="5" spans="1:3" ht="18.75" customHeight="1"/>
     <row r="6" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="4"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="4"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B11" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1">
+      <c r="B14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B23" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+    </row>
+    <row r="27" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" s="3"/>
+    </row>
+    <row r="28" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+    </row>
+    <row r="29" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B29" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C29" s="3"/>
+    </row>
+    <row r="30" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="3"/>
+    </row>
+    <row r="31" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+    </row>
+    <row r="32" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B32" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C32" s="3"/>
+    </row>
+    <row r="33" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C33" s="3"/>
+    </row>
+    <row r="34" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+    </row>
+    <row r="35" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B35" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="C35" s="3"/>
+    </row>
+    <row r="36" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="3"/>
+    </row>
+    <row r="37" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+    </row>
+    <row r="38" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B38" s="3" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B17" s="4" t="s">
+      <c r="C38" s="3"/>
+    </row>
+    <row r="39" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+    </row>
+    <row r="40" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B40" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B19" s="4" t="s">
+      <c r="C40" s="3"/>
+    </row>
+    <row r="41" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+    </row>
+    <row r="42" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B42" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B21" s="4" t="s">
+      <c r="C42" s="3"/>
+    </row>
+    <row r="43" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B43" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="3"/>
+    </row>
+    <row r="44" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="3"/>
+    </row>
+    <row r="45" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+    </row>
+    <row r="46" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B46" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B23" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B25" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C25" s="4"/>
-    </row>
-    <row r="26" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-    </row>
-    <row r="27" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B27" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C27" s="4"/>
-    </row>
-    <row r="28" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-    </row>
-    <row r="29" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B29" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C29" s="4"/>
-    </row>
-    <row r="30" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30" s="4"/>
-    </row>
-    <row r="31" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-    </row>
-    <row r="32" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B32" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B33" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="4"/>
-    </row>
-    <row r="34" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-    </row>
-    <row r="35" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B35" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="C35" s="4"/>
-    </row>
-    <row r="36" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B36" s="4" t="s">
+      <c r="C46" s="3"/>
+    </row>
+    <row r="47" spans="2:3" ht="18.75" customHeight="1">
+      <c r="B47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="4"/>
-    </row>
-    <row r="37" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-    </row>
-    <row r="38" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B38" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C38" s="4"/>
-    </row>
-    <row r="39" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-    </row>
-    <row r="40" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B40" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="C40" s="4"/>
-    </row>
-    <row r="41" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-    </row>
-    <row r="42" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B42" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="C42" s="4"/>
-    </row>
-    <row r="43" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B43" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="4"/>
-    </row>
-    <row r="44" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B44" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="4"/>
-    </row>
-    <row r="45" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-    </row>
-    <row r="46" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B46" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="C46" s="4"/>
-    </row>
-    <row r="47" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B47" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="49" ht="18.75" customHeight="1"/>
@@ -21050,172 +18633,172 @@
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C16" s="4"/>
+      <c r="B16" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="4"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
     </row>
     <row r="28" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="4"/>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="4"/>
+      <c r="C30" s="3"/>
     </row>
     <row r="31" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C32" s="4"/>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C34" s="4"/>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C38" s="4"/>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="40" spans="2:3" ht="18.75" customHeight="1"/>
@@ -22204,656 +19787,656 @@
     <row r="4" spans="2:4" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:4" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
     </row>
     <row r="7" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
     </row>
     <row r="8" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
     </row>
     <row r="9" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
     </row>
     <row r="10" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
     </row>
     <row r="11" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
     </row>
     <row r="12" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
     </row>
     <row r="13" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
     </row>
     <row r="14" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
     </row>
     <row r="15" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
     </row>
     <row r="16" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
     </row>
     <row r="17" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B17" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
     </row>
     <row r="18" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
     </row>
     <row r="19" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
     </row>
     <row r="20" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
     </row>
     <row r="21" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
     </row>
     <row r="22" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
     </row>
     <row r="23" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
     </row>
     <row r="24" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D25" s="3"/>
+    </row>
+    <row r="26" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="3"/>
+    </row>
+    <row r="27" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+    </row>
+    <row r="28" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+    </row>
+    <row r="29" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D29" s="3"/>
+    </row>
+    <row r="30" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E40" s="3"/>
+    </row>
+    <row r="41" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="G42" s="3"/>
+    </row>
+    <row r="43" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E45" s="3"/>
+    </row>
+    <row r="46" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D24" s="4"/>
-    </row>
-    <row r="25" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+    </row>
+    <row r="47" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" ht="18.75" customHeight="1">
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
+    </row>
+    <row r="50" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+    </row>
+    <row r="51" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="3"/>
+    </row>
+    <row r="52" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E57" s="3"/>
+    </row>
+    <row r="58" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="D26" s="4"/>
-    </row>
-    <row r="27" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-    </row>
-    <row r="28" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B28" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-    </row>
-    <row r="29" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
+    </row>
+    <row r="59" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D29" s="4"/>
-    </row>
-    <row r="30" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="4" t="s">
+    </row>
+    <row r="62" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E62" s="3"/>
+    </row>
+    <row r="63" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B68" s="3" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="33" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="4" t="s">
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="34" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="35" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="37" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="4"/>
-      <c r="E41" s="4" t="s">
+    <row r="71" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="42" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="G42" s="4"/>
-    </row>
-    <row r="43" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="44" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4" t="s">
+    <row r="72" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="45" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
+    <row r="73" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B74" s="3" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="47" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="48" spans="2:7" ht="18.75" customHeight="1">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B76" s="3" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="50" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="4"/>
-    </row>
-    <row r="51" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B51" s="4"/>
-      <c r="C51" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D51" s="4"/>
-    </row>
-    <row r="52" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="E57" s="4"/>
-    </row>
-    <row r="58" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4" t="s">
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B77" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B79" s="3" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="59" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4" t="s">
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="2:5" ht="18.75" customHeight="1">
+      <c r="B80" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B82" s="3" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="62" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E62" s="4"/>
-    </row>
-    <row r="63" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="4"/>
-      <c r="E63" s="4" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
-      <c r="D64" s="4"/>
-      <c r="E64" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="66" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
-      <c r="D66" s="4"/>
-      <c r="E66" s="4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="67" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
-      <c r="D67" s="4"/>
-    </row>
-    <row r="68" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B68" s="4" t="s">
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B83" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C68" s="4"/>
-      <c r="D68" s="4"/>
-    </row>
-    <row r="69" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B69" s="4"/>
-      <c r="C69" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="D69" s="4"/>
-    </row>
-    <row r="70" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
-      <c r="D70" s="4" t="s">
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B85" s="3" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="71" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
-      <c r="D71" s="4" t="s">
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B87" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B89" s="3" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="72" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
-      <c r="D72" s="4" t="s">
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B91" s="3" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="73" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-    </row>
-    <row r="74" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B74" s="4" t="s">
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="2:4" ht="18.75" customHeight="1">
+      <c r="B93" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-    </row>
-    <row r="75" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-    </row>
-    <row r="76" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B76" s="4" t="s">
-        <v>218</v>
-      </c>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-    </row>
-    <row r="77" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B77" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="4"/>
-      <c r="D77" s="4"/>
-    </row>
-    <row r="78" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
-      <c r="D78" s="4"/>
-    </row>
-    <row r="79" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B79" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C79" s="4"/>
-      <c r="D79" s="4"/>
-    </row>
-    <row r="80" spans="2:5" ht="18.75" customHeight="1">
-      <c r="B80" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C80" s="4"/>
-      <c r="D80" s="4"/>
-    </row>
-    <row r="81" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
-      <c r="D81" s="4"/>
-    </row>
-    <row r="82" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B82" s="4" t="s">
-        <v>220</v>
-      </c>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-    </row>
-    <row r="83" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B83" s="4" t="s">
-        <v>221</v>
-      </c>
-      <c r="C83" s="4"/>
-      <c r="D83" s="4"/>
-    </row>
-    <row r="84" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
-      <c r="D84" s="4"/>
-    </row>
-    <row r="85" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B85" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="C85" s="4"/>
-      <c r="D85" s="4"/>
-    </row>
-    <row r="86" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
-      <c r="D86" s="4"/>
-    </row>
-    <row r="87" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B87" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="4"/>
-      <c r="D87" s="4"/>
-    </row>
-    <row r="88" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
-      <c r="D88" s="4"/>
-    </row>
-    <row r="89" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B89" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="C89" s="4"/>
-      <c r="D89" s="4"/>
-    </row>
-    <row r="90" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
-      <c r="D90" s="4"/>
-    </row>
-    <row r="91" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B91" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="C91" s="4"/>
-      <c r="D91" s="4"/>
-    </row>
-    <row r="92" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
-      <c r="D92" s="4"/>
-    </row>
-    <row r="93" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B93" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C93" s="4"/>
-      <c r="D93" s="4"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
     </row>
     <row r="94" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B94" s="4" t="s">
+      <c r="B94" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C94" s="4"/>
-      <c r="D94" s="4"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
     </row>
     <row r="95" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
-      <c r="D95" s="4"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
     </row>
     <row r="96" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B96" s="4" t="s">
+      <c r="B96" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="4"/>
-      <c r="D96" s="4"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
     </row>
     <row r="97" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B97" s="4"/>
-      <c r="C97" s="4" t="s">
+      <c r="B97" s="3"/>
+      <c r="C97" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="D97" s="4"/>
+      <c r="D97" s="3"/>
     </row>
     <row r="98" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B98" s="4"/>
-      <c r="C98" s="4" t="s">
+      <c r="B98" s="3"/>
+      <c r="C98" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="D98" s="4"/>
+      <c r="D98" s="3"/>
     </row>
     <row r="99" spans="2:4" ht="18.75" customHeight="1">
-      <c r="B99" s="4"/>
-      <c r="C99" s="4" t="s">
+      <c r="B99" s="3"/>
+      <c r="C99" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D99" s="4"/>
+      <c r="D99" s="3"/>
     </row>
     <row r="100" spans="2:4" ht="18.75" customHeight="1"/>
     <row r="101" spans="2:4" ht="18.75" customHeight="1"/>
@@ -23813,239 +21396,239 @@
     <row r="4" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C14" s="4"/>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="16" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B16" s="4"/>
-      <c r="C16" s="4" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="17" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="18" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="19" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>99</v>
       </c>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>101</v>
       </c>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
     </row>
     <row r="27" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B27" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="B27" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B28" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C28" s="4"/>
+      <c r="B28" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C28" s="3"/>
     </row>
     <row r="29" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B30" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="G30" s="4"/>
+      <c r="B30" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="3"/>
+      <c r="G30" s="3"/>
     </row>
     <row r="31" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
     </row>
     <row r="32" spans="2:10" ht="18.75" customHeight="1">
-      <c r="B32" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" s="4"/>
+      <c r="B32" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="3"/>
     </row>
     <row r="33" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
     </row>
     <row r="34" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B34" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C34" s="4"/>
+      <c r="B34" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="C35" s="4"/>
+      <c r="C35" s="3"/>
     </row>
     <row r="36" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C36" s="4"/>
+      <c r="C36" s="3"/>
     </row>
     <row r="37" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
     </row>
     <row r="38" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B38" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="C38" s="4"/>
+      <c r="B38" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="3"/>
     </row>
     <row r="39" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
     </row>
     <row r="40" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B40" s="4" t="s">
-        <v>242</v>
+      <c r="B40" s="3" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B41" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C41" s="4"/>
+      <c r="B41" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="3"/>
     </row>
     <row r="42" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B42" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C42" s="4"/>
+      <c r="B42" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C42" s="3"/>
     </row>
     <row r="43" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B43" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="C43" s="4"/>
+      <c r="B43" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C43" s="3"/>
     </row>
     <row r="44" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B44" s="4"/>
-      <c r="C44" s="4" t="s">
-        <v>306</v>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
     </row>
     <row r="46" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B46" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="C46" s="4"/>
+      <c r="B46" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C46" s="3"/>
     </row>
     <row r="47" spans="1:3" ht="18.75" customHeight="1">
-      <c r="A47" s="5"/>
-      <c r="B47" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C47" s="4"/>
+      <c r="A47" s="4"/>
+      <c r="B47" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C47" s="3"/>
     </row>
     <row r="48" spans="1:3" ht="18.75" customHeight="1">
-      <c r="B48" s="4"/>
-      <c r="C48" s="4" t="s">
-        <v>288</v>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="3:3" ht="18.75" customHeight="1">
-      <c r="C49" s="4"/>
+      <c r="C49" s="3"/>
     </row>
     <row r="50" spans="3:3" ht="18.75" customHeight="1"/>
     <row r="51" spans="3:3" ht="18.75" customHeight="1"/>
@@ -25018,150 +22601,150 @@
     <row r="4" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="5" spans="2:3" ht="18.75" customHeight="1"/>
     <row r="6" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="4"/>
+      <c r="C6" s="3"/>
     </row>
     <row r="7" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
     </row>
     <row r="8" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="C8" s="4"/>
+      <c r="C8" s="3"/>
     </row>
     <row r="9" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="4"/>
+      <c r="C10" s="3"/>
     </row>
     <row r="11" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="C12" s="4"/>
+      <c r="C12" s="3"/>
     </row>
     <row r="13" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
     </row>
     <row r="14" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="C14" s="4"/>
+      <c r="B14" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3" ht="18.75" customHeight="1">
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B17" s="4"/>
-      <c r="C17" s="4" t="s">
-        <v>237</v>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>229</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B18" s="4"/>
-      <c r="C18" s="4" t="s">
-        <v>238</v>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>230</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="3" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B19" s="4"/>
-      <c r="C19" s="4" t="s">
-        <v>239</v>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>231</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="4" t="s">
+      <c r="H19" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="H20" s="3"/>
     </row>
     <row r="21" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B21" s="4"/>
-      <c r="C21" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="H21" s="4" t="s">
-        <v>159</v>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="G21" s="4"/>
+      <c r="H21" s="3" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1">
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="H22" s="3"/>
     </row>
     <row r="23" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B23" s="4"/>
-      <c r="C23" s="4" t="s">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3" t="s">
         <v>111</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="4" t="s">
-        <v>226</v>
+      <c r="H23" s="3" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>240</v>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="3" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="25" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="H25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="H25" s="3"/>
     </row>
     <row r="26" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="C26" s="4"/>
-      <c r="H26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="H26" s="3"/>
     </row>
     <row r="27" spans="2:8" ht="18.75" customHeight="1">
-      <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>241</v>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="4" t="s">
+      <c r="H27" s="3" t="s">
         <v>114</v>
       </c>
     </row>
